--- a/AfDD_2025_Annex_Table_Tab26.xlsx
+++ b/AfDD_2025_Annex_Table_Tab26.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main.oecd.org\ASgenDEV\AFRICASTATS\Statistical Annex (Final written files are in S)\Output tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B8055F9A-0E0D-451C-A1F0-24FC012FC11E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D95942D-B6C2-4B4A-A033-F04C690AF581}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38520" yWindow="-5400" windowWidth="38640" windowHeight="21120" xr2:uid="{AEA45699-ADB3-4F90-A06B-A54351ADF45C}"/>
+    <workbookView xWindow="-34710" yWindow="-1485" windowWidth="19410" windowHeight="20985" xr2:uid="{DEF6FC5D-1AA3-43DA-96CF-878EDA4A36F5}"/>
   </bookViews>
   <sheets>
     <sheet name="Tab26" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Tab26'!$A$2:$H$98</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'Tab26'!$A$1:$F$98</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Tab26'!$A$2:$F$98</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Tab26'!$A$1:$D$98</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="168">
   <si>
     <t>Table 26: Subjective well-being</t>
   </si>
@@ -51,12 +51,6 @@
     <t>Cantril life ladder, most recent measure 2015-24</t>
   </si>
   <si>
-    <t>Negative affect, most recent measure 2015-24</t>
-  </si>
-  <si>
-    <t>Positive affect, most recent measure 2015-24</t>
-  </si>
-  <si>
     <t>Freedom to make life choices, most recent measure 2015-24</t>
   </si>
   <si>
@@ -72,13 +66,13 @@
     <t>Angola*</t>
   </si>
   <si>
+    <t>..</t>
+  </si>
+  <si>
     <t>BWA</t>
   </si>
   <si>
     <t>Botswana</t>
-  </si>
-  <si>
-    <t>Update will be coming soon</t>
   </si>
   <si>
     <t>SWZ</t>
@@ -557,7 +551,7 @@
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
   </numFmts>
-  <fonts count="21" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -626,13 +620,6 @@
     </font>
     <font>
       <sz val="8"/>
-      <color theme="1"/>
-      <name val="Calibri Light"/>
-      <family val="2"/>
-      <scheme val="major"/>
-    </font>
-    <font>
-      <sz val="35"/>
       <color theme="1"/>
       <name val="Calibri Light"/>
       <family val="2"/>
@@ -932,7 +919,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="83">
+  <cellXfs count="82">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -977,8 +964,11 @@
     <xf numFmtId="164" fontId="9" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="37" fontId="10" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -992,12 +982,6 @@
     <xf numFmtId="164" fontId="9" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1010,19 +994,19 @@
     <xf numFmtId="164" fontId="9" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1076,25 +1060,25 @@
     <xf numFmtId="0" fontId="8" fillId="3" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1109,13 +1093,13 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1142,28 +1126,28 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyBorder="1"/>
   </cellXfs>
@@ -1447,23 +1431,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E62171F9-15F6-487B-A24D-40363300B979}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{028BC9BC-B761-4151-8460-085F989011FE}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:O113"/>
+  <dimension ref="A1:F113"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="33.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="8" width="14.42578125" style="81" customWidth="1"/>
-    <col min="9" max="26" width="14.42578125" customWidth="1"/>
+    <col min="3" max="6" width="14.42578125" style="80" customWidth="1"/>
+    <col min="7" max="24" width="14.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
         <v>0</v>
@@ -1471,10 +1457,8 @@
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
       <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-    </row>
-    <row r="2" spans="1:15" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:6" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -1490,1472 +1474,1979 @@
       <c r="E2" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="7" t="s">
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="B3" s="10" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" s="10" t="s">
+      <c r="C3" s="11">
+        <v>3.7949999999999999</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="13" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="11"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="13"/>
-    </row>
-    <row r="4" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="9" t="s">
+      <c r="B4" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="14" t="s">
+      <c r="C4" s="15">
+        <v>3.383</v>
+      </c>
+      <c r="D4" s="16">
+        <v>0.56699999999999995</v>
+      </c>
+      <c r="E4" s="16">
+        <v>1.4E-2</v>
+      </c>
+      <c r="F4" s="17">
+        <v>0.96899999999999997</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="15"/>
-      <c r="D4" s="16" t="s">
+      <c r="B5" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="16"/>
-      <c r="F4" s="16"/>
-      <c r="G4" s="16"/>
-      <c r="H4" s="16"/>
-      <c r="I4" s="16"/>
-      <c r="J4" s="16"/>
-      <c r="K4" s="16"/>
-      <c r="L4" s="16"/>
-      <c r="M4" s="16"/>
-      <c r="N4" s="16"/>
-      <c r="O4" s="16"/>
-    </row>
-    <row r="5" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="9" t="s">
+      <c r="C5" s="15">
+        <v>3.5019999999999998</v>
+      </c>
+      <c r="D5" s="19">
+        <v>0.28399999999999997</v>
+      </c>
+      <c r="E5" s="19">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="F5" s="20">
+        <v>0.92500000000000004</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="17" t="s">
+      <c r="B6" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="15"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="16"/>
-      <c r="G5" s="16"/>
-      <c r="H5" s="16"/>
-      <c r="I5" s="16"/>
-      <c r="J5" s="16"/>
-      <c r="K5" s="16"/>
-      <c r="L5" s="16"/>
-      <c r="M5" s="16"/>
-      <c r="N5" s="16"/>
-      <c r="O5" s="16"/>
-    </row>
-    <row r="6" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="9" t="s">
+      <c r="C6" s="15">
+        <v>3.1859999999999999</v>
+      </c>
+      <c r="D6" s="19">
+        <v>0.52300000000000002</v>
+      </c>
+      <c r="E6" s="19">
+        <v>8.2000000000000003E-2</v>
+      </c>
+      <c r="F6" s="20">
+        <v>0.85099999999999998</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="17" t="s">
+      <c r="B7" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="15"/>
-      <c r="D6" s="16"/>
-      <c r="E6" s="16"/>
-      <c r="F6" s="16"/>
-      <c r="G6" s="16"/>
-      <c r="H6" s="16"/>
-      <c r="I6" s="16"/>
-      <c r="J6" s="16"/>
-      <c r="K6" s="16"/>
-      <c r="L6" s="16"/>
-      <c r="M6" s="16"/>
-      <c r="N6" s="16"/>
-      <c r="O6" s="16"/>
-    </row>
-    <row r="7" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="9" t="s">
+      <c r="C7" s="15">
+        <v>3.4209999999999998</v>
+      </c>
+      <c r="D7" s="19">
+        <v>0.57099999999999995</v>
+      </c>
+      <c r="E7" s="19">
+        <v>0.13500000000000001</v>
+      </c>
+      <c r="F7" s="20">
+        <v>0.41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="17" t="s">
+      <c r="B8" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="15"/>
-      <c r="D7" s="16"/>
-      <c r="E7" s="16"/>
-      <c r="F7" s="16"/>
-      <c r="G7" s="16"/>
-      <c r="H7" s="16"/>
-      <c r="I7" s="16"/>
-      <c r="J7" s="16"/>
-      <c r="K7" s="16"/>
-      <c r="L7" s="16"/>
-      <c r="M7" s="16"/>
-      <c r="N7" s="16"/>
-      <c r="O7" s="16"/>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A8" s="9" t="s">
+      <c r="C8" s="15">
+        <v>5.2160000000000002</v>
+      </c>
+      <c r="D8" s="19">
+        <v>0.72799999999999998</v>
+      </c>
+      <c r="E8" s="19">
+        <v>0.158</v>
+      </c>
+      <c r="F8" s="20">
+        <v>0.88300000000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="17" t="s">
+      <c r="B9" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="15"/>
-      <c r="D8" s="18"/>
-      <c r="E8" s="18"/>
-      <c r="F8" s="18"/>
-      <c r="G8" s="18"/>
-      <c r="H8" s="19"/>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A9" s="9" t="s">
+      <c r="C9" s="21">
+        <v>4.8319999999999999</v>
+      </c>
+      <c r="D9" s="19">
+        <v>0.47</v>
+      </c>
+      <c r="E9" s="19">
+        <v>6.9000000000000006E-2</v>
+      </c>
+      <c r="F9" s="20">
+        <v>1.212</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="B9" s="17" t="s">
+      <c r="B10" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="C9" s="20"/>
-      <c r="D9" s="18"/>
-      <c r="E9" s="18"/>
-      <c r="F9" s="18"/>
-      <c r="G9" s="18"/>
-      <c r="H9" s="19"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" s="9" t="s">
+      <c r="C10" s="21">
+        <v>5.4219999999999997</v>
+      </c>
+      <c r="D10" s="19">
+        <v>0.53700000000000003</v>
+      </c>
+      <c r="E10" s="19">
+        <v>7.8E-2</v>
+      </c>
+      <c r="F10" s="20">
+        <v>1.369</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="B10" s="17" t="s">
+      <c r="B11" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="20"/>
-      <c r="D10" s="18"/>
-      <c r="E10" s="18"/>
-      <c r="F10" s="18"/>
-      <c r="G10" s="18"/>
-      <c r="H10" s="19"/>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A11" s="9" t="s">
+      <c r="C11" s="15">
+        <v>3.5019999999999998</v>
+      </c>
+      <c r="D11" s="16">
+        <v>0.72699999999999998</v>
+      </c>
+      <c r="E11" s="16">
+        <v>0.16800000000000001</v>
+      </c>
+      <c r="F11" s="17">
+        <v>0.80900000000000005</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="B11" s="17" t="s">
+      <c r="B12" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="C11" s="15"/>
-      <c r="D11" s="21"/>
-      <c r="E11" s="21"/>
-      <c r="F11" s="21"/>
-      <c r="G11" s="21"/>
-      <c r="H11" s="22"/>
-    </row>
-    <row r="12" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="9" t="s">
+      <c r="C12" s="23">
+        <v>3.3410000000000002</v>
+      </c>
+      <c r="D12" s="24">
+        <v>0.48699999999999999</v>
+      </c>
+      <c r="E12" s="24">
+        <v>9.6000000000000002E-2</v>
+      </c>
+      <c r="F12" s="25">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="26"/>
+      <c r="B13" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="B12" s="23" t="s">
+      <c r="C13" s="28">
+        <v>3.96</v>
+      </c>
+      <c r="D13" s="29">
+        <v>0.54377799999999998</v>
+      </c>
+      <c r="E13" s="29">
+        <v>9.5444000000000001E-2</v>
+      </c>
+      <c r="F13" s="30">
+        <v>0.91977799999999998</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="C12" s="24"/>
-      <c r="D12" s="25"/>
-      <c r="E12" s="25"/>
-      <c r="F12" s="25"/>
-      <c r="G12" s="25"/>
-      <c r="H12" s="26"/>
-    </row>
-    <row r="13" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="27"/>
-      <c r="B13" s="28" t="s">
+      <c r="B14" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="C13" s="29"/>
-      <c r="D13" s="30"/>
-      <c r="E13" s="30"/>
-      <c r="F13" s="30"/>
-      <c r="G13" s="30"/>
-      <c r="H13" s="31"/>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A14" s="9" t="s">
+      <c r="C14" s="21">
+        <v>3.7749999999999999</v>
+      </c>
+      <c r="D14" s="19">
+        <v>0.29799999999999999</v>
+      </c>
+      <c r="E14" s="19">
+        <v>0.17199999999999999</v>
+      </c>
+      <c r="F14" s="20">
+        <v>6.2E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="B14" s="17" t="s">
+      <c r="B15" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="C14" s="20"/>
-      <c r="D14" s="18"/>
-      <c r="E14" s="18"/>
-      <c r="F14" s="18"/>
-      <c r="G14" s="18"/>
-      <c r="H14" s="19"/>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A15" s="9" t="s">
+      <c r="C15" s="21">
+        <v>4.8739999999999997</v>
+      </c>
+      <c r="D15" s="19">
+        <v>0.52100000000000002</v>
+      </c>
+      <c r="E15" s="19">
+        <v>0.126</v>
+      </c>
+      <c r="F15" s="20">
+        <v>0.85599999999999998</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="B15" s="17" t="s">
+      <c r="B16" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="C15" s="20"/>
-      <c r="D15" s="18"/>
-      <c r="E15" s="18"/>
-      <c r="F15" s="18"/>
-      <c r="G15" s="18"/>
-      <c r="H15" s="19"/>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A16" s="9" t="s">
+      <c r="C16" s="21">
+        <v>3.4759000000000002</v>
+      </c>
+      <c r="D16" s="19">
+        <v>0.29281400000000002</v>
+      </c>
+      <c r="E16" s="19">
+        <v>0.25351299999999999</v>
+      </c>
+      <c r="F16" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="B16" s="17" t="s">
+      <c r="B17" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="C16" s="20"/>
-      <c r="D16" s="18"/>
-      <c r="E16" s="18"/>
-      <c r="F16" s="18"/>
-      <c r="G16" s="18"/>
-      <c r="H16" s="19"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="9" t="s">
+      <c r="C17" s="32">
+        <v>4.4710000000000001</v>
+      </c>
+      <c r="D17" s="33">
+        <v>0.41099999999999998</v>
+      </c>
+      <c r="E17" s="33">
+        <v>0.218</v>
+      </c>
+      <c r="F17" s="34">
+        <v>0.80500000000000005</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="B17" s="32" t="s">
+      <c r="B18" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="C17" s="33"/>
-      <c r="D17" s="34"/>
-      <c r="E17" s="34"/>
-      <c r="F17" s="34"/>
-      <c r="G17" s="34"/>
-      <c r="H17" s="35"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="9" t="s">
+      <c r="C18" s="32">
+        <v>5.2210000000000001</v>
+      </c>
+      <c r="D18" s="33">
+        <v>0.52300000000000002</v>
+      </c>
+      <c r="E18" s="33">
+        <v>0.124</v>
+      </c>
+      <c r="F18" s="34">
+        <v>0.622</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="B18" s="32" t="s">
+      <c r="B19" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="C18" s="33"/>
-      <c r="D18" s="34"/>
-      <c r="E18" s="34"/>
-      <c r="F18" s="34"/>
-      <c r="G18" s="34"/>
-      <c r="H18" s="35"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="9" t="s">
+      <c r="C19" s="15">
+        <v>3.2949999999999999</v>
+      </c>
+      <c r="D19" s="16">
+        <v>0.47299999999999998</v>
+      </c>
+      <c r="E19" s="16">
+        <v>0.189</v>
+      </c>
+      <c r="F19" s="17">
+        <v>0.66500000000000004</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="B19" s="17" t="s">
+      <c r="B20" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="C19" s="15"/>
-      <c r="D19" s="21"/>
-      <c r="E19" s="21"/>
-      <c r="F19" s="21"/>
-      <c r="G19" s="21"/>
-      <c r="H19" s="22"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="9" t="s">
+      <c r="C20" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="D20" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="E20" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="F20" s="34" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="B20" s="32" t="s">
+      <c r="B21" s="31" t="s">
         <v>44</v>
       </c>
-      <c r="C20" s="33"/>
-      <c r="D20" s="34"/>
-      <c r="E20" s="34"/>
-      <c r="F20" s="34"/>
-      <c r="G20" s="34"/>
-      <c r="H20" s="35"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="9" t="s">
+      <c r="C21" s="32">
+        <v>5.1059999999999999</v>
+      </c>
+      <c r="D21" s="33">
+        <v>0.51600000000000001</v>
+      </c>
+      <c r="E21" s="33">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="F21" s="34">
+        <v>1.038</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="B21" s="32" t="s">
+      <c r="B22" s="35" t="s">
         <v>46</v>
       </c>
-      <c r="C21" s="33"/>
-      <c r="D21" s="34"/>
-      <c r="E21" s="34"/>
-      <c r="F21" s="34"/>
-      <c r="G21" s="34"/>
-      <c r="H21" s="35"/>
-    </row>
-    <row r="22" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="9" t="s">
+      <c r="C22" s="36" t="s">
+        <v>9</v>
+      </c>
+      <c r="D22" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="E22" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="F22" s="38" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="26"/>
+      <c r="B23" s="27" t="s">
         <v>47</v>
       </c>
-      <c r="B22" s="36" t="s">
+      <c r="C23" s="28">
+        <v>4.3168430000000004</v>
+      </c>
+      <c r="D23" s="29">
+        <v>0.43354500000000001</v>
+      </c>
+      <c r="E23" s="29">
+        <v>0.16107299999999999</v>
+      </c>
+      <c r="F23" s="30">
+        <v>0.57828599999999997</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="C22" s="37"/>
-      <c r="D22" s="38"/>
-      <c r="E22" s="38"/>
-      <c r="F22" s="38"/>
-      <c r="G22" s="38"/>
-      <c r="H22" s="39"/>
-    </row>
-    <row r="23" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="27"/>
-      <c r="B23" s="28" t="s">
+      <c r="B24" s="39" t="s">
         <v>49</v>
       </c>
-      <c r="C23" s="29"/>
-      <c r="D23" s="30"/>
-      <c r="E23" s="30"/>
-      <c r="F23" s="30"/>
-      <c r="G23" s="30"/>
-      <c r="H23" s="31"/>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="9" t="s">
+      <c r="C24" s="40">
+        <v>3.5659999999999998</v>
+      </c>
+      <c r="D24" s="41">
+        <v>0.17199999999999999</v>
+      </c>
+      <c r="E24" s="41">
+        <v>0.128</v>
+      </c>
+      <c r="F24" s="42">
+        <v>0.32800000000000001</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="B24" s="40" t="s">
+      <c r="B25" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="C24" s="41"/>
-      <c r="D24" s="42"/>
-      <c r="E24" s="42"/>
-      <c r="F24" s="42"/>
-      <c r="G24" s="42"/>
-      <c r="H24" s="43"/>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="9" t="s">
+      <c r="C25" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="D25" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="E25" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="F25" s="20" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="B25" s="17" t="s">
+      <c r="B26" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="C25" s="20"/>
-      <c r="D25" s="18"/>
-      <c r="E25" s="18"/>
-      <c r="F25" s="18"/>
-      <c r="G25" s="18"/>
-      <c r="H25" s="19"/>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="9" t="s">
+      <c r="C26" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="D26" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="E26" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="F26" s="20" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="B26" s="17" t="s">
+      <c r="B27" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="C26" s="20"/>
-      <c r="D26" s="18"/>
-      <c r="E26" s="18"/>
-      <c r="F26" s="18"/>
-      <c r="G26" s="18"/>
-      <c r="H26" s="19"/>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="9" t="s">
+      <c r="C27" s="21">
+        <v>3.8610000000000002</v>
+      </c>
+      <c r="D27" s="19">
+        <v>0.441</v>
+      </c>
+      <c r="E27" s="19">
+        <v>0.27</v>
+      </c>
+      <c r="F27" s="20">
+        <v>0.91500000000000004</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="B27" s="17" t="s">
+      <c r="B28" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="C27" s="20"/>
-      <c r="D27" s="18"/>
-      <c r="E27" s="18"/>
-      <c r="F27" s="18"/>
-      <c r="G27" s="18"/>
-      <c r="H27" s="19"/>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="9" t="s">
+      <c r="C28" s="21">
+        <v>4.47</v>
+      </c>
+      <c r="D28" s="19">
+        <v>0.51900000000000002</v>
+      </c>
+      <c r="E28" s="19">
+        <v>0.28199999999999997</v>
+      </c>
+      <c r="F28" s="20">
+        <v>0.89500000000000002</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="B28" s="17" t="s">
+      <c r="B29" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="C28" s="20"/>
-      <c r="D28" s="18"/>
-      <c r="E28" s="18"/>
-      <c r="F28" s="18"/>
-      <c r="G28" s="18"/>
-      <c r="H28" s="19"/>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="9" t="s">
+      <c r="C29" s="21">
+        <v>4.2279999999999998</v>
+      </c>
+      <c r="D29" s="19">
+        <v>0.25</v>
+      </c>
+      <c r="E29" s="19">
+        <v>0.17199999999999999</v>
+      </c>
+      <c r="F29" s="20">
+        <v>0.82299999999999995</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="B29" s="17" t="s">
+      <c r="B30" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="C29" s="20"/>
-      <c r="D29" s="18"/>
-      <c r="E29" s="18"/>
-      <c r="F29" s="18"/>
-      <c r="G29" s="18"/>
-      <c r="H29" s="19"/>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="9" t="s">
+      <c r="C30" s="21">
+        <v>5.8159999999999998</v>
+      </c>
+      <c r="D30" s="19">
+        <v>0.64100000000000001</v>
+      </c>
+      <c r="E30" s="19">
+        <v>0.123</v>
+      </c>
+      <c r="F30" s="20">
+        <v>1.3580000000000001</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="B30" s="17" t="s">
+      <c r="B31" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="C30" s="20"/>
-      <c r="D30" s="18"/>
-      <c r="E30" s="18"/>
-      <c r="F30" s="18"/>
-      <c r="G30" s="18"/>
-      <c r="H30" s="19"/>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="9" t="s">
+      <c r="C31" s="21">
+        <v>3.2679999999999998</v>
+      </c>
+      <c r="D31" s="19">
+        <v>0.621</v>
+      </c>
+      <c r="E31" s="19">
+        <v>0.187</v>
+      </c>
+      <c r="F31" s="20">
+        <v>0.13300000000000001</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="B31" s="17" t="s">
+      <c r="B32" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="C31" s="20"/>
-      <c r="D31" s="18"/>
-      <c r="E31" s="18"/>
-      <c r="F31" s="18"/>
-      <c r="G31" s="18"/>
-      <c r="H31" s="19"/>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="9" t="s">
+      <c r="C32" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="D32" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="E32" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="F32" s="20" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="B32" s="17" t="s">
+      <c r="B33" s="18" t="s">
         <v>67</v>
       </c>
-      <c r="C32" s="20"/>
-      <c r="D32" s="18"/>
-      <c r="E32" s="18"/>
-      <c r="F32" s="18"/>
-      <c r="G32" s="18"/>
-      <c r="H32" s="19"/>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="9" t="s">
+      <c r="C33" s="21">
+        <v>4.6680000000000001</v>
+      </c>
+      <c r="D33" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="E33" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="F33" s="20" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="B33" s="17" t="s">
+      <c r="B34" s="31" t="s">
         <v>69</v>
       </c>
-      <c r="C33" s="20"/>
-      <c r="D33" s="18"/>
-      <c r="E33" s="18"/>
-      <c r="F33" s="18"/>
-      <c r="G33" s="18"/>
-      <c r="H33" s="19"/>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="9" t="s">
+      <c r="C34" s="32">
+        <v>2.8166000000000002</v>
+      </c>
+      <c r="D34" s="33">
+        <v>6.5609000000000001E-2</v>
+      </c>
+      <c r="E34" s="33">
+        <v>0.20993500000000001</v>
+      </c>
+      <c r="F34" s="34">
+        <v>0.55327899999999997</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="B34" s="32" t="s">
+      <c r="B35" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="C34" s="33"/>
-      <c r="D34" s="34"/>
-      <c r="E34" s="34"/>
-      <c r="F34" s="34"/>
-      <c r="G34" s="34"/>
-      <c r="H34" s="35"/>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" s="9" t="s">
+      <c r="C35" s="21">
+        <v>4.1390000000000002</v>
+      </c>
+      <c r="D35" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="E35" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="F35" s="20" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="B35" s="17" t="s">
+      <c r="B36" s="18" t="s">
         <v>73</v>
       </c>
-      <c r="C35" s="20"/>
-      <c r="D35" s="18"/>
-      <c r="E35" s="18"/>
-      <c r="F35" s="18"/>
-      <c r="G35" s="18"/>
-      <c r="H35" s="19"/>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" s="9" t="s">
+      <c r="C36" s="21">
+        <v>3.7810000000000001</v>
+      </c>
+      <c r="D36" s="19">
+        <v>0.70899999999999996</v>
+      </c>
+      <c r="E36" s="19">
+        <v>0.191</v>
+      </c>
+      <c r="F36" s="20">
+        <v>0.70599999999999996</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="B36" s="17" t="s">
+      <c r="B37" s="22" t="s">
         <v>75</v>
       </c>
-      <c r="C36" s="20"/>
-      <c r="D36" s="18"/>
-      <c r="E36" s="18"/>
-      <c r="F36" s="18"/>
-      <c r="G36" s="18"/>
-      <c r="H36" s="19"/>
-    </row>
-    <row r="37" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="9" t="s">
+      <c r="C37" s="23">
+        <v>4.3719999999999999</v>
+      </c>
+      <c r="D37" s="24">
+        <v>0.58699999999999997</v>
+      </c>
+      <c r="E37" s="24">
+        <v>0.17799999999999999</v>
+      </c>
+      <c r="F37" s="25">
+        <v>1.151</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="26"/>
+      <c r="B38" s="27" t="s">
         <v>76</v>
       </c>
-      <c r="B37" s="23" t="s">
+      <c r="C38" s="28">
+        <v>4.0895999999999999</v>
+      </c>
+      <c r="D38" s="29">
+        <v>0.44506800000000002</v>
+      </c>
+      <c r="E38" s="29">
+        <v>0.193437</v>
+      </c>
+      <c r="F38" s="30">
+        <v>0.76247500000000001</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="C37" s="24"/>
-      <c r="D37" s="25"/>
-      <c r="E37" s="25"/>
-      <c r="F37" s="25"/>
-      <c r="G37" s="25"/>
-      <c r="H37" s="26"/>
-    </row>
-    <row r="38" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="27"/>
-      <c r="B38" s="28" t="s">
+      <c r="B39" s="43" t="s">
         <v>78</v>
       </c>
-      <c r="C38" s="29"/>
-      <c r="D38" s="30"/>
-      <c r="E38" s="30"/>
-      <c r="F38" s="30"/>
-      <c r="G38" s="30"/>
-      <c r="H38" s="31"/>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" s="9" t="s">
+      <c r="C39" s="44">
+        <v>5.3639999999999999</v>
+      </c>
+      <c r="D39" s="45">
+        <v>0.247</v>
+      </c>
+      <c r="E39" s="45">
+        <v>9.0999999999999998E-2</v>
+      </c>
+      <c r="F39" s="46">
+        <v>1.1910000000000001</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="B39" s="44" t="s">
+      <c r="B40" s="18" t="s">
         <v>80</v>
       </c>
-      <c r="C39" s="45"/>
-      <c r="D39" s="46"/>
-      <c r="E39" s="46"/>
-      <c r="F39" s="46"/>
-      <c r="G39" s="46"/>
-      <c r="H39" s="47"/>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" s="9" t="s">
+      <c r="C40" s="21">
+        <v>3.9769999999999999</v>
+      </c>
+      <c r="D40" s="19">
+        <v>0.49</v>
+      </c>
+      <c r="E40" s="19">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="F40" s="20">
+        <v>0.996</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="B40" s="17" t="s">
+      <c r="B41" s="47" t="s">
         <v>82</v>
       </c>
-      <c r="C40" s="20"/>
-      <c r="D40" s="18"/>
-      <c r="E40" s="18"/>
-      <c r="F40" s="18"/>
-      <c r="G40" s="18"/>
-      <c r="H40" s="19"/>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" s="9" t="s">
+      <c r="C41" s="32">
+        <v>5.8659999999999997</v>
+      </c>
+      <c r="D41" s="33">
+        <v>0.59199999999999997</v>
+      </c>
+      <c r="E41" s="33">
+        <v>0.111</v>
+      </c>
+      <c r="F41" s="34">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="B41" s="48" t="s">
+      <c r="B42" s="47" t="s">
         <v>84</v>
       </c>
-      <c r="C41" s="33"/>
-      <c r="D41" s="34"/>
-      <c r="E41" s="34"/>
-      <c r="F41" s="34"/>
-      <c r="G41" s="34"/>
-      <c r="H41" s="35"/>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42" s="9" t="s">
+      <c r="C42" s="32">
+        <v>4.5049999999999999</v>
+      </c>
+      <c r="D42" s="33">
+        <v>0.34300000000000003</v>
+      </c>
+      <c r="E42" s="33">
+        <v>0.13300000000000001</v>
+      </c>
+      <c r="F42" s="34">
+        <v>0.70499999999999996</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="B42" s="48" t="s">
+      <c r="B43" s="18" t="s">
         <v>86</v>
       </c>
-      <c r="C42" s="33"/>
-      <c r="D42" s="34"/>
-      <c r="E42" s="34"/>
-      <c r="F42" s="34"/>
-      <c r="G42" s="34"/>
-      <c r="H42" s="35"/>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A43" s="9" t="s">
+      <c r="C43" s="21">
+        <v>4.7949999999999999</v>
+      </c>
+      <c r="D43" s="19">
+        <v>0.63100000000000001</v>
+      </c>
+      <c r="E43" s="19">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="F43" s="20">
+        <v>0.47099999999999997</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="B43" s="17" t="s">
+      <c r="B44" s="35" t="s">
         <v>88</v>
       </c>
-      <c r="C43" s="20"/>
-      <c r="D43" s="18"/>
-      <c r="E43" s="18"/>
-      <c r="F43" s="18"/>
-      <c r="G43" s="18"/>
-      <c r="H43" s="19"/>
-    </row>
-    <row r="44" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="9" t="s">
+      <c r="C44" s="36">
+        <v>4.4219999999999997</v>
+      </c>
+      <c r="D44" s="37">
+        <v>0.254</v>
+      </c>
+      <c r="E44" s="37">
+        <v>2.4E-2</v>
+      </c>
+      <c r="F44" s="38">
+        <v>0.95499999999999996</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="26"/>
+      <c r="B45" s="27" t="s">
         <v>89</v>
       </c>
-      <c r="B44" s="36" t="s">
+      <c r="C45" s="28">
+        <v>4.8215000000000003</v>
+      </c>
+      <c r="D45" s="29">
+        <v>0.42616700000000002</v>
+      </c>
+      <c r="E45" s="29">
+        <v>7.0999999999999994E-2</v>
+      </c>
+      <c r="F45" s="30">
+        <v>0.90300000000000002</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="C44" s="37"/>
-      <c r="D44" s="38"/>
-      <c r="E44" s="38"/>
-      <c r="F44" s="38"/>
-      <c r="G44" s="38"/>
-      <c r="H44" s="39"/>
-    </row>
-    <row r="45" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="27"/>
-      <c r="B45" s="28" t="s">
+      <c r="B46" s="39" t="s">
         <v>91</v>
       </c>
-      <c r="C45" s="29"/>
-      <c r="D45" s="30"/>
-      <c r="E45" s="30"/>
-      <c r="F45" s="30"/>
-      <c r="G45" s="30"/>
-      <c r="H45" s="31"/>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A46" s="9" t="s">
+      <c r="C46" s="40">
+        <v>4.3769999999999998</v>
+      </c>
+      <c r="D46" s="41">
+        <v>0.56699999999999995</v>
+      </c>
+      <c r="E46" s="41">
+        <v>0.112</v>
+      </c>
+      <c r="F46" s="42">
+        <v>0.128</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="B46" s="40" t="s">
+      <c r="B47" s="18" t="s">
         <v>93</v>
       </c>
-      <c r="C46" s="41"/>
-      <c r="D46" s="42"/>
-      <c r="E46" s="42"/>
-      <c r="F46" s="42"/>
-      <c r="G46" s="42"/>
-      <c r="H46" s="43"/>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A47" s="9" t="s">
+      <c r="C47" s="21">
+        <v>4.548</v>
+      </c>
+      <c r="D47" s="19">
+        <v>0.48299999999999998</v>
+      </c>
+      <c r="E47" s="19">
+        <v>0.17299999999999999</v>
+      </c>
+      <c r="F47" s="20">
+        <v>0.68500000000000005</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="B47" s="17" t="s">
+      <c r="B48" s="47" t="s">
         <v>95</v>
       </c>
-      <c r="C47" s="20"/>
-      <c r="D47" s="18"/>
-      <c r="E47" s="18"/>
-      <c r="F47" s="18"/>
-      <c r="G47" s="18"/>
-      <c r="H47" s="19"/>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A48" s="9" t="s">
+      <c r="C48" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="D48" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="E48" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="F48" s="34" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="B48" s="48" t="s">
+      <c r="B49" s="18" t="s">
         <v>97</v>
       </c>
-      <c r="C48" s="33"/>
-      <c r="D48" s="34"/>
-      <c r="E48" s="34"/>
-      <c r="F48" s="34"/>
-      <c r="G48" s="34"/>
-      <c r="H48" s="35"/>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A49" s="9" t="s">
+      <c r="C49" s="21">
+        <v>5.08</v>
+      </c>
+      <c r="D49" s="19">
+        <v>0.54700000000000004</v>
+      </c>
+      <c r="E49" s="19">
+        <v>0.12</v>
+      </c>
+      <c r="F49" s="20">
+        <v>0.57799999999999996</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="B49" s="17" t="s">
+      <c r="B50" s="18" t="s">
         <v>99</v>
       </c>
-      <c r="C49" s="20"/>
-      <c r="D49" s="18"/>
-      <c r="E49" s="18"/>
-      <c r="F49" s="18"/>
-      <c r="G49" s="18"/>
-      <c r="H49" s="19"/>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A50" s="9" t="s">
+      <c r="C50" s="21">
+        <v>4.4850000000000003</v>
+      </c>
+      <c r="D50" s="19">
+        <v>0.45900000000000002</v>
+      </c>
+      <c r="E50" s="19">
+        <v>0.32400000000000001</v>
+      </c>
+      <c r="F50" s="20">
+        <v>0.68400000000000005</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="B50" s="17" t="s">
+      <c r="B51" s="14" t="s">
         <v>101</v>
       </c>
-      <c r="C50" s="20"/>
-      <c r="D50" s="18"/>
-      <c r="E50" s="18"/>
-      <c r="F50" s="18"/>
-      <c r="G50" s="18"/>
-      <c r="H50" s="19"/>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A51" s="9" t="s">
+      <c r="C51" s="15">
+        <v>4.2889999999999997</v>
+      </c>
+      <c r="D51" s="16">
+        <v>0.623</v>
+      </c>
+      <c r="E51" s="16">
+        <v>0.183</v>
+      </c>
+      <c r="F51" s="17">
+        <v>0.747</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="B51" s="14" t="s">
+      <c r="B52" s="18" t="s">
         <v>103</v>
       </c>
-      <c r="C51" s="15"/>
-      <c r="D51" s="21"/>
-      <c r="E51" s="21"/>
-      <c r="F51" s="21"/>
-      <c r="G51" s="21"/>
-      <c r="H51" s="22"/>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A52" s="9" t="s">
+      <c r="C52" s="21">
+        <v>5.0229999999999997</v>
+      </c>
+      <c r="D52" s="19">
+        <v>0.52100000000000002</v>
+      </c>
+      <c r="E52" s="19">
+        <v>0.21</v>
+      </c>
+      <c r="F52" s="20">
+        <v>0.622</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="B52" s="17" t="s">
+      <c r="B53" s="18" t="s">
         <v>105</v>
       </c>
-      <c r="C52" s="20"/>
-      <c r="D52" s="18"/>
-      <c r="E52" s="18"/>
-      <c r="F52" s="18"/>
-      <c r="G52" s="18"/>
-      <c r="H52" s="19"/>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A53" s="9" t="s">
+      <c r="C53" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="D53" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="E53" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="F53" s="20" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="B53" s="17" t="s">
+      <c r="B54" s="18" t="s">
         <v>107</v>
       </c>
-      <c r="C53" s="20"/>
-      <c r="D53" s="18"/>
-      <c r="E53" s="18"/>
-      <c r="F53" s="18"/>
-      <c r="G53" s="18"/>
-      <c r="H53" s="19"/>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A54" s="9" t="s">
+      <c r="C54" s="21">
+        <v>4.2690000000000001</v>
+      </c>
+      <c r="D54" s="19">
+        <v>0.54600000000000004</v>
+      </c>
+      <c r="E54" s="19">
+        <v>0.17799999999999999</v>
+      </c>
+      <c r="F54" s="20">
+        <v>0.67300000000000004</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="B54" s="17" t="s">
+      <c r="B55" s="18" t="s">
         <v>109</v>
       </c>
-      <c r="C54" s="20"/>
-      <c r="D54" s="18"/>
-      <c r="E54" s="18"/>
-      <c r="F54" s="18"/>
-      <c r="G54" s="18"/>
-      <c r="H54" s="19"/>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A55" s="9" t="s">
+      <c r="C55" s="21">
+        <v>4.2320000000000002</v>
+      </c>
+      <c r="D55" s="19">
+        <v>0.58599999999999997</v>
+      </c>
+      <c r="E55" s="19">
+        <v>0.12</v>
+      </c>
+      <c r="F55" s="20">
+        <v>0.68799999999999994</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="B55" s="17" t="s">
+      <c r="B56" s="18" t="s">
         <v>111</v>
       </c>
-      <c r="C55" s="20"/>
-      <c r="D55" s="18"/>
-      <c r="E55" s="18"/>
-      <c r="F55" s="18"/>
-      <c r="G55" s="18"/>
-      <c r="H55" s="19"/>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A56" s="9" t="s">
+      <c r="C56" s="21">
+        <v>4.556</v>
+      </c>
+      <c r="D56" s="19">
+        <v>0.61499999999999999</v>
+      </c>
+      <c r="E56" s="19">
+        <v>0.14499999999999999</v>
+      </c>
+      <c r="F56" s="20">
+        <v>0.67700000000000005</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="B56" s="17" t="s">
+      <c r="B57" s="18" t="s">
         <v>113</v>
       </c>
-      <c r="C56" s="20"/>
-      <c r="D56" s="18"/>
-      <c r="E56" s="18"/>
-      <c r="F56" s="18"/>
-      <c r="G56" s="18"/>
-      <c r="H56" s="19"/>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A57" s="9" t="s">
+      <c r="C57" s="21">
+        <v>4.8810000000000002</v>
+      </c>
+      <c r="D57" s="19">
+        <v>0.56599999999999995</v>
+      </c>
+      <c r="E57" s="19">
+        <v>0.20100000000000001</v>
+      </c>
+      <c r="F57" s="20">
+        <v>1.075</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A58" s="9" t="s">
         <v>114</v>
       </c>
-      <c r="B57" s="17" t="s">
+      <c r="B58" s="18" t="s">
         <v>115</v>
       </c>
-      <c r="C57" s="20"/>
-      <c r="D57" s="18"/>
-      <c r="E57" s="18"/>
-      <c r="F57" s="18"/>
-      <c r="G57" s="18"/>
-      <c r="H57" s="19"/>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A58" s="9" t="s">
+      <c r="C58" s="21">
+        <v>4.9690000000000003</v>
+      </c>
+      <c r="D58" s="19">
+        <v>0.60699999999999998</v>
+      </c>
+      <c r="E58" s="19">
+        <v>0.152</v>
+      </c>
+      <c r="F58" s="20">
+        <v>0.751</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A59" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="B58" s="17" t="s">
+      <c r="B59" s="18" t="s">
         <v>117</v>
       </c>
-      <c r="C58" s="20"/>
-      <c r="D58" s="18"/>
-      <c r="E58" s="18"/>
-      <c r="F58" s="18"/>
-      <c r="G58" s="18"/>
-      <c r="H58" s="19"/>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A59" s="9" t="s">
+      <c r="C59" s="21">
+        <v>3.2450000000000001</v>
+      </c>
+      <c r="D59" s="19">
+        <v>0.46899999999999997</v>
+      </c>
+      <c r="E59" s="19">
+        <v>0.18099999999999999</v>
+      </c>
+      <c r="F59" s="20">
+        <v>0.56599999999999995</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="B59" s="17" t="s">
+      <c r="B60" s="22" t="s">
         <v>119</v>
       </c>
-      <c r="C59" s="20"/>
-      <c r="D59" s="18"/>
-      <c r="E59" s="18"/>
-      <c r="F59" s="18"/>
-      <c r="G59" s="18"/>
-      <c r="H59" s="19"/>
-    </row>
-    <row r="60" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="9" t="s">
+      <c r="C60" s="23">
+        <v>4.2140000000000004</v>
+      </c>
+      <c r="D60" s="24">
+        <v>0.45300000000000001</v>
+      </c>
+      <c r="E60" s="24">
+        <v>0.127</v>
+      </c>
+      <c r="F60" s="25">
+        <v>0.58599999999999997</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="26"/>
+      <c r="B61" s="27" t="s">
         <v>120</v>
       </c>
-      <c r="B60" s="23" t="s">
+      <c r="C61" s="28">
+        <v>4.4744619999999999</v>
+      </c>
+      <c r="D61" s="29">
+        <v>0.54169199999999995</v>
+      </c>
+      <c r="E61" s="29">
+        <v>0.17123099999999999</v>
+      </c>
+      <c r="F61" s="30">
+        <v>0.65076900000000004</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="48"/>
+      <c r="B62" s="49" t="s">
         <v>121</v>
       </c>
-      <c r="C60" s="24"/>
-      <c r="D60" s="25"/>
-      <c r="E60" s="25"/>
-      <c r="F60" s="25"/>
-      <c r="G60" s="25"/>
-      <c r="H60" s="26"/>
-    </row>
-    <row r="61" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="27"/>
-      <c r="B61" s="28" t="s">
+      <c r="C62" s="50">
+        <v>4.2957549999999998</v>
+      </c>
+      <c r="D62" s="51">
+        <v>0.489396</v>
+      </c>
+      <c r="E62" s="51">
+        <v>0.144987</v>
+      </c>
+      <c r="F62" s="52">
+        <v>0.75150600000000001</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="48"/>
+      <c r="B63" s="49" t="s">
         <v>122</v>
       </c>
-      <c r="C61" s="29"/>
-      <c r="D61" s="30"/>
-      <c r="E61" s="30"/>
-      <c r="F61" s="30"/>
-      <c r="G61" s="30"/>
-      <c r="H61" s="31"/>
-    </row>
-    <row r="62" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="49"/>
-      <c r="B62" s="50" t="s">
+      <c r="C63" s="50">
+        <v>5.9143569999999999</v>
+      </c>
+      <c r="D63" s="51">
+        <v>0.65847</v>
+      </c>
+      <c r="E63" s="51">
+        <v>0.153609</v>
+      </c>
+      <c r="F63" s="52">
+        <v>1.2525900000000001</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A64" s="53"/>
+      <c r="B64" s="54" t="s">
         <v>123</v>
       </c>
-      <c r="C62" s="51"/>
-      <c r="D62" s="52"/>
-      <c r="E62" s="52"/>
-      <c r="F62" s="52"/>
-      <c r="G62" s="52"/>
-      <c r="H62" s="53"/>
-    </row>
-    <row r="63" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="49"/>
-      <c r="B63" s="50" t="s">
+      <c r="C64" s="55">
+        <v>6.0328650000000001</v>
+      </c>
+      <c r="D64" s="56">
+        <v>0.67485399999999995</v>
+      </c>
+      <c r="E64" s="56">
+        <v>0.12816</v>
+      </c>
+      <c r="F64" s="57">
+        <v>1.221873</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A65" s="53"/>
+      <c r="B65" s="58" t="s">
         <v>124</v>
       </c>
-      <c r="C63" s="51"/>
-      <c r="D63" s="52"/>
-      <c r="E63" s="52"/>
-      <c r="F63" s="52"/>
-      <c r="G63" s="52"/>
-      <c r="H63" s="53"/>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A64" s="54"/>
-      <c r="B64" s="55" t="s">
+      <c r="C65" s="59">
+        <v>4.8369999999999997</v>
+      </c>
+      <c r="D65" s="60">
+        <v>0.61838499999999996</v>
+      </c>
+      <c r="E65" s="60">
+        <v>0.18438499999999999</v>
+      </c>
+      <c r="F65" s="61">
+        <v>1.0302690000000001</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="53"/>
+      <c r="B66" s="62" t="s">
         <v>125</v>
       </c>
-      <c r="C64" s="56"/>
-      <c r="D64" s="57"/>
-      <c r="E64" s="57"/>
-      <c r="F64" s="57"/>
-      <c r="G64" s="57"/>
-      <c r="H64" s="58"/>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A65" s="54"/>
-      <c r="B65" s="59" t="s">
+      <c r="C66" s="63">
+        <v>5.4267010000000004</v>
+      </c>
+      <c r="D66" s="64">
+        <v>0.608205</v>
+      </c>
+      <c r="E66" s="64">
+        <v>0.15104600000000001</v>
+      </c>
+      <c r="F66" s="65">
+        <v>1.1036189999999999</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A67" s="53"/>
+      <c r="B67" s="58" t="s">
         <v>126</v>
       </c>
-      <c r="C65" s="60"/>
-      <c r="D65" s="61"/>
-      <c r="E65" s="61"/>
-      <c r="F65" s="61"/>
-      <c r="G65" s="61"/>
-      <c r="H65" s="62"/>
-    </row>
-    <row r="66" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="54"/>
-      <c r="B66" s="63" t="s">
+      <c r="C67" s="59">
+        <v>4.0827220000000004</v>
+      </c>
+      <c r="D67" s="60">
+        <v>0.46293800000000002</v>
+      </c>
+      <c r="E67" s="60">
+        <v>0.14493700000000001</v>
+      </c>
+      <c r="F67" s="61">
+        <v>0.77343799999999996</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A68" s="53"/>
+      <c r="B68" s="58" t="s">
         <v>127</v>
       </c>
-      <c r="C66" s="64"/>
-      <c r="D66" s="65"/>
-      <c r="E66" s="65"/>
-      <c r="F66" s="65"/>
-      <c r="G66" s="65"/>
-      <c r="H66" s="66"/>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A67" s="54"/>
-      <c r="B67" s="59" t="s">
+      <c r="C68" s="59">
+        <v>4.4447229999999998</v>
+      </c>
+      <c r="D68" s="60">
+        <v>0.48409099999999999</v>
+      </c>
+      <c r="E68" s="60">
+        <v>0.14912600000000001</v>
+      </c>
+      <c r="F68" s="61">
+        <v>0.65734999999999999</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A69" s="53"/>
+      <c r="B69" s="58" t="s">
         <v>128</v>
       </c>
-      <c r="C67" s="60"/>
-      <c r="D67" s="61"/>
-      <c r="E67" s="61"/>
-      <c r="F67" s="61"/>
-      <c r="G67" s="61"/>
-      <c r="H67" s="62"/>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A68" s="54"/>
-      <c r="B68" s="59" t="s">
+      <c r="C69" s="59">
+        <v>3.6825139999999998</v>
+      </c>
+      <c r="D69" s="60">
+        <v>0.46751599999999999</v>
+      </c>
+      <c r="E69" s="60">
+        <v>0.20127600000000001</v>
+      </c>
+      <c r="F69" s="61">
+        <v>0.59504000000000001</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A70" s="53"/>
+      <c r="B70" s="58" t="s">
         <v>129</v>
       </c>
-      <c r="C68" s="60"/>
-      <c r="D68" s="61"/>
-      <c r="E68" s="61"/>
-      <c r="F68" s="61"/>
-      <c r="G68" s="61"/>
-      <c r="H68" s="62"/>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A69" s="54"/>
-      <c r="B69" s="59" t="s">
+      <c r="C70" s="59">
+        <v>4.1423220000000001</v>
+      </c>
+      <c r="D70" s="60">
+        <v>0.45697700000000002</v>
+      </c>
+      <c r="E70" s="60">
+        <v>0.16431399999999999</v>
+      </c>
+      <c r="F70" s="61">
+        <v>0.52262500000000001</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A71" s="53"/>
+      <c r="B71" s="58" t="s">
         <v>130</v>
       </c>
-      <c r="C69" s="60"/>
-      <c r="D69" s="61"/>
-      <c r="E69" s="61"/>
-      <c r="F69" s="61"/>
-      <c r="G69" s="61"/>
-      <c r="H69" s="62"/>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A70" s="54"/>
-      <c r="B70" s="59" t="s">
+      <c r="C71" s="59">
+        <v>4.4744619999999999</v>
+      </c>
+      <c r="D71" s="60">
+        <v>0.54169199999999995</v>
+      </c>
+      <c r="E71" s="60">
+        <v>0.17123099999999999</v>
+      </c>
+      <c r="F71" s="61">
+        <v>0.65076900000000004</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A72" s="53"/>
+      <c r="B72" s="58" t="s">
         <v>131</v>
       </c>
-      <c r="C70" s="60"/>
-      <c r="D70" s="61"/>
-      <c r="E70" s="61"/>
-      <c r="F70" s="61"/>
-      <c r="G70" s="61"/>
-      <c r="H70" s="62"/>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A71" s="54"/>
-      <c r="B71" s="59" t="s">
+      <c r="C72" s="59">
+        <v>4.0544330000000004</v>
+      </c>
+      <c r="D72" s="60">
+        <v>0.40315200000000001</v>
+      </c>
+      <c r="E72" s="60">
+        <v>0.234984</v>
+      </c>
+      <c r="F72" s="61">
+        <v>0.87856999999999996</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A73" s="53"/>
+      <c r="B73" s="58" t="s">
         <v>132</v>
       </c>
-      <c r="C71" s="60"/>
-      <c r="D71" s="61"/>
-      <c r="E71" s="61"/>
-      <c r="F71" s="61"/>
-      <c r="G71" s="61"/>
-      <c r="H71" s="62"/>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A72" s="54"/>
-      <c r="B72" s="59" t="s">
+      <c r="C73" s="59">
+        <v>4.0190669999999997</v>
+      </c>
+      <c r="D73" s="60">
+        <v>0.50992899999999997</v>
+      </c>
+      <c r="E73" s="60">
+        <v>0.118714</v>
+      </c>
+      <c r="F73" s="61">
+        <v>0.86842900000000001</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A74" s="53"/>
+      <c r="B74" s="58" t="s">
         <v>133</v>
       </c>
-      <c r="C72" s="60"/>
-      <c r="D72" s="61"/>
-      <c r="E72" s="61"/>
-      <c r="F72" s="61"/>
-      <c r="G72" s="61"/>
-      <c r="H72" s="62"/>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A73" s="54"/>
-      <c r="B73" s="59" t="s">
+      <c r="C74" s="59">
+        <v>4.9904000000000002</v>
+      </c>
+      <c r="D74" s="60">
+        <v>0.41339999999999999</v>
+      </c>
+      <c r="E74" s="60">
+        <v>8.0199999999999994E-2</v>
+      </c>
+      <c r="F74" s="61">
+        <v>0.88439999999999996</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="53"/>
+      <c r="B75" s="58" t="s">
         <v>134</v>
       </c>
-      <c r="C73" s="60"/>
-      <c r="D73" s="61"/>
-      <c r="E73" s="61"/>
-      <c r="F73" s="61"/>
-      <c r="G73" s="61"/>
-      <c r="H73" s="62"/>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A74" s="54"/>
-      <c r="B74" s="59" t="s">
+      <c r="C75" s="66">
+        <v>4.5054999999999996</v>
+      </c>
+      <c r="D75" s="67">
+        <v>0.72799999999999998</v>
+      </c>
+      <c r="E75" s="67">
+        <v>0.158</v>
+      </c>
+      <c r="F75" s="68">
+        <v>0.88300000000000001</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A76" s="53"/>
+      <c r="B76" s="69" t="s">
         <v>135</v>
       </c>
-      <c r="C74" s="60"/>
-      <c r="D74" s="61"/>
-      <c r="E74" s="61"/>
-      <c r="F74" s="61"/>
-      <c r="G74" s="61"/>
-      <c r="H74" s="62"/>
-    </row>
-    <row r="75" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="54"/>
-      <c r="B75" s="59" t="s">
+      <c r="C76" s="70">
+        <v>5.5518890000000001</v>
+      </c>
+      <c r="D76" s="71">
+        <v>0.76500000000000001</v>
+      </c>
+      <c r="E76" s="71">
+        <v>0.223333</v>
+      </c>
+      <c r="F76" s="72">
+        <v>1.1445559999999999</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A77" s="53"/>
+      <c r="B77" s="58" t="s">
         <v>136</v>
       </c>
-      <c r="C75" s="67"/>
-      <c r="D75" s="68"/>
-      <c r="E75" s="68"/>
-      <c r="F75" s="68"/>
-      <c r="G75" s="68"/>
-      <c r="H75" s="69"/>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A76" s="54"/>
-      <c r="B76" s="70" t="s">
+      <c r="C77" s="59">
+        <v>6.0572499999999998</v>
+      </c>
+      <c r="D77" s="60">
+        <v>0.67290899999999998</v>
+      </c>
+      <c r="E77" s="60">
+        <v>0.105727</v>
+      </c>
+      <c r="F77" s="61">
+        <v>1.302</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A78" s="53"/>
+      <c r="B78" s="58" t="s">
         <v>137</v>
       </c>
-      <c r="C76" s="71"/>
-      <c r="D76" s="72"/>
-      <c r="E76" s="72"/>
-      <c r="F76" s="72"/>
-      <c r="G76" s="72"/>
-      <c r="H76" s="73"/>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A77" s="54"/>
-      <c r="B77" s="59" t="s">
+      <c r="C78" s="59">
+        <v>6.5879260000000004</v>
+      </c>
+      <c r="D78" s="60">
+        <v>0.67411100000000002</v>
+      </c>
+      <c r="E78" s="60">
+        <v>0.13570399999999999</v>
+      </c>
+      <c r="F78" s="61">
+        <v>1.4279630000000001</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A79" s="53"/>
+      <c r="B79" s="62" t="s">
         <v>138</v>
       </c>
-      <c r="C77" s="60"/>
-      <c r="D77" s="61"/>
-      <c r="E77" s="61"/>
-      <c r="F77" s="61"/>
-      <c r="G77" s="61"/>
-      <c r="H77" s="62"/>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A78" s="54"/>
-      <c r="B78" s="59" t="s">
+      <c r="C79" s="63">
+        <v>6.685079</v>
+      </c>
+      <c r="D79" s="64">
+        <v>0.68228900000000003</v>
+      </c>
+      <c r="E79" s="64">
+        <v>0.14952599999999999</v>
+      </c>
+      <c r="F79" s="65">
+        <v>1.4187369999999999</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A80" s="53"/>
+      <c r="B80" s="69" t="s">
         <v>139</v>
       </c>
-      <c r="C78" s="60"/>
-      <c r="D78" s="61"/>
-      <c r="E78" s="61"/>
-      <c r="F78" s="61"/>
-      <c r="G78" s="61"/>
-      <c r="H78" s="62"/>
-    </row>
-    <row r="79" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="54"/>
-      <c r="B79" s="63" t="s">
+      <c r="C80" s="70">
+        <v>4.6430749999999996</v>
+      </c>
+      <c r="D80" s="71">
+        <v>0.38537300000000002</v>
+      </c>
+      <c r="E80" s="71">
+        <v>0.133134</v>
+      </c>
+      <c r="F80" s="72">
+        <v>0.85918300000000003</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A81" s="53"/>
+      <c r="B81" s="58" t="s">
         <v>140</v>
       </c>
-      <c r="C79" s="64"/>
-      <c r="D79" s="65"/>
-      <c r="E79" s="65"/>
-      <c r="F79" s="65"/>
-      <c r="G79" s="65"/>
-      <c r="H79" s="66"/>
-    </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A80" s="54"/>
-      <c r="B80" s="70" t="s">
+      <c r="C81" s="59">
+        <v>5.7936059999999996</v>
+      </c>
+      <c r="D81" s="60">
+        <v>0.62149600000000005</v>
+      </c>
+      <c r="E81" s="60">
+        <v>0.17858499999999999</v>
+      </c>
+      <c r="F81" s="61">
+        <v>1.2723949999999999</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A82" s="53"/>
+      <c r="B82" s="58" t="s">
         <v>141</v>
       </c>
-      <c r="C80" s="71"/>
-      <c r="D80" s="72"/>
-      <c r="E80" s="72"/>
-      <c r="F80" s="72"/>
-      <c r="G80" s="72"/>
-      <c r="H80" s="73"/>
-    </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A81" s="54"/>
-      <c r="B81" s="59" t="s">
+      <c r="C82" s="59">
+        <v>4.2245100000000004</v>
+      </c>
+      <c r="D82" s="60">
+        <v>0.50907599999999997</v>
+      </c>
+      <c r="E82" s="60">
+        <v>0.14723</v>
+      </c>
+      <c r="F82" s="61">
+        <v>0.73113499999999998</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A83" s="53"/>
+      <c r="B83" s="62" t="s">
         <v>142</v>
       </c>
-      <c r="C81" s="60"/>
-      <c r="D81" s="61"/>
-      <c r="E81" s="61"/>
-      <c r="F81" s="61"/>
-      <c r="G81" s="61"/>
-      <c r="H81" s="62"/>
-    </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A82" s="54"/>
-      <c r="B82" s="59" t="s">
+      <c r="C83" s="63">
+        <v>5.9382419999999998</v>
+      </c>
+      <c r="D83" s="64">
+        <v>0.66519300000000003</v>
+      </c>
+      <c r="E83" s="64">
+        <v>0.14906800000000001</v>
+      </c>
+      <c r="F83" s="65">
+        <v>1.2489889999999999</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A84" s="53"/>
+      <c r="B84" s="69" t="s">
         <v>143</v>
       </c>
-      <c r="C82" s="60"/>
-      <c r="D82" s="61"/>
-      <c r="E82" s="61"/>
-      <c r="F82" s="61"/>
-      <c r="G82" s="61"/>
-      <c r="H82" s="62"/>
-    </row>
-    <row r="83" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="54"/>
-      <c r="B83" s="63" t="s">
+      <c r="C84" s="70">
+        <v>4.0365529999999996</v>
+      </c>
+      <c r="D84" s="71">
+        <v>0.46520099999999998</v>
+      </c>
+      <c r="E84" s="71">
+        <v>0.183556</v>
+      </c>
+      <c r="F84" s="72">
+        <v>0.59084000000000003</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A85" s="53"/>
+      <c r="B85" s="73" t="s">
         <v>144</v>
       </c>
-      <c r="C83" s="64"/>
-      <c r="D83" s="65"/>
-      <c r="E83" s="65"/>
-      <c r="F83" s="65"/>
-      <c r="G83" s="65"/>
-      <c r="H83" s="66"/>
-    </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A84" s="54"/>
-      <c r="B84" s="70" t="s">
+      <c r="C85" s="59">
+        <v>2.9146670000000001</v>
+      </c>
+      <c r="D85" s="60">
+        <v>0.18099999999999999</v>
+      </c>
+      <c r="E85" s="60">
+        <v>8.5500000000000007E-2</v>
+      </c>
+      <c r="F85" s="61">
+        <v>0.64049999999999996</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A86" s="53"/>
+      <c r="B86" s="58" t="s">
         <v>145</v>
       </c>
-      <c r="C84" s="71"/>
-      <c r="D84" s="72"/>
-      <c r="E84" s="72"/>
-      <c r="F84" s="72"/>
-      <c r="G84" s="72"/>
-      <c r="H84" s="73"/>
-    </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A85" s="54"/>
-      <c r="B85" s="74" t="s">
+      <c r="C86" s="59">
+        <v>4.3041900000000002</v>
+      </c>
+      <c r="D86" s="60">
+        <v>0.50419999999999998</v>
+      </c>
+      <c r="E86" s="60">
+        <v>0.12634999999999999</v>
+      </c>
+      <c r="F86" s="61">
+        <v>0.75409999999999999</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A87" s="53"/>
+      <c r="B87" s="58" t="s">
         <v>146</v>
       </c>
-      <c r="C85" s="60"/>
-      <c r="D85" s="61"/>
-      <c r="E85" s="61"/>
-      <c r="F85" s="61"/>
-      <c r="G85" s="61"/>
-      <c r="H85" s="62"/>
-    </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A86" s="54"/>
-      <c r="B86" s="59" t="s">
+      <c r="C87" s="59">
+        <v>4.9196999999999997</v>
+      </c>
+      <c r="D87" s="60">
+        <v>0.66426300000000005</v>
+      </c>
+      <c r="E87" s="60">
+        <v>0.17489499999999999</v>
+      </c>
+      <c r="F87" s="61">
+        <v>0.961368</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A88" s="53"/>
+      <c r="B88" s="58" t="s">
         <v>147</v>
       </c>
-      <c r="C86" s="60"/>
-      <c r="D86" s="61"/>
-      <c r="E86" s="61"/>
-      <c r="F86" s="61"/>
-      <c r="G86" s="61"/>
-      <c r="H86" s="62"/>
-    </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A87" s="54"/>
-      <c r="B87" s="59" t="s">
+      <c r="C88" s="59">
+        <v>5.1595000000000004</v>
+      </c>
+      <c r="D88" s="60">
+        <v>0.51666699999999999</v>
+      </c>
+      <c r="E88" s="60">
+        <v>7.6999999999999999E-2</v>
+      </c>
+      <c r="F88" s="61">
+        <v>1.170833</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A89" s="53"/>
+      <c r="B89" s="58" t="s">
         <v>148</v>
       </c>
-      <c r="C87" s="60"/>
-      <c r="D87" s="61"/>
-      <c r="E87" s="61"/>
-      <c r="F87" s="61"/>
-      <c r="G87" s="61"/>
-      <c r="H87" s="62"/>
-    </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A88" s="54"/>
-      <c r="B88" s="59" t="s">
+      <c r="C89" s="59">
+        <v>5.738429</v>
+      </c>
+      <c r="D89" s="60">
+        <v>0.63757600000000003</v>
+      </c>
+      <c r="E89" s="60">
+        <v>0.147727</v>
+      </c>
+      <c r="F89" s="61">
+        <v>1.2192419999999999</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A90" s="53"/>
+      <c r="B90" s="62" t="s">
         <v>149</v>
       </c>
-      <c r="C88" s="60"/>
-      <c r="D88" s="61"/>
-      <c r="E88" s="61"/>
-      <c r="F88" s="61"/>
-      <c r="G88" s="61"/>
-      <c r="H88" s="62"/>
-    </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A89" s="54"/>
-      <c r="B89" s="59" t="s">
+      <c r="C90" s="63">
+        <v>6.6214979999999999</v>
+      </c>
+      <c r="D90" s="64">
+        <v>0.69265200000000005</v>
+      </c>
+      <c r="E90" s="64">
+        <v>0.151313</v>
+      </c>
+      <c r="F90" s="65">
+        <v>1.4115580000000001</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A91" s="53"/>
+      <c r="B91" s="69" t="s">
         <v>150</v>
       </c>
-      <c r="C89" s="60"/>
-      <c r="D89" s="61"/>
-      <c r="E89" s="61"/>
-      <c r="F89" s="61"/>
-      <c r="G89" s="61"/>
-      <c r="H89" s="62"/>
-    </row>
-    <row r="90" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="54"/>
-      <c r="B90" s="63" t="s">
+      <c r="C91" s="70">
+        <v>4.043431</v>
+      </c>
+      <c r="D91" s="71">
+        <v>0.48147800000000002</v>
+      </c>
+      <c r="E91" s="71">
+        <v>0.17563300000000001</v>
+      </c>
+      <c r="F91" s="72">
+        <v>0.60997199999999996</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A92" s="53"/>
+      <c r="B92" s="58" t="s">
         <v>151</v>
       </c>
-      <c r="C90" s="64"/>
-      <c r="D90" s="65"/>
-      <c r="E90" s="65"/>
-      <c r="F90" s="65"/>
-      <c r="G90" s="65"/>
-      <c r="H90" s="66"/>
-    </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A91" s="54"/>
-      <c r="B91" s="70" t="s">
+      <c r="C92" s="59">
+        <v>3.9718749999999998</v>
+      </c>
+      <c r="D92" s="60">
+        <v>0.51949999999999996</v>
+      </c>
+      <c r="E92" s="60">
+        <v>0.2155</v>
+      </c>
+      <c r="F92" s="61">
+        <v>0.69325000000000003</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A93" s="53"/>
+      <c r="B93" s="58" t="s">
         <v>152</v>
       </c>
-      <c r="C91" s="71"/>
-      <c r="D91" s="72"/>
-      <c r="E91" s="72"/>
-      <c r="F91" s="72"/>
-      <c r="G91" s="72"/>
-      <c r="H91" s="73"/>
-    </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A92" s="54"/>
-      <c r="B92" s="59" t="s">
+      <c r="C93" s="59">
+        <v>4.6909999999999998</v>
+      </c>
+      <c r="D93" s="60">
+        <v>0.40649999999999997</v>
+      </c>
+      <c r="E93" s="60">
+        <v>0.1255</v>
+      </c>
+      <c r="F93" s="61">
+        <v>0.84299999999999997</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A94" s="53"/>
+      <c r="B94" s="58" t="s">
         <v>153</v>
       </c>
-      <c r="C92" s="60"/>
-      <c r="D92" s="61"/>
-      <c r="E92" s="61"/>
-      <c r="F92" s="61"/>
-      <c r="G92" s="61"/>
-      <c r="H92" s="62"/>
-    </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A93" s="54"/>
-      <c r="B93" s="59" t="s">
+      <c r="C94" s="59">
+        <v>5.6772369999999999</v>
+      </c>
+      <c r="D94" s="60">
+        <v>0.58415499999999998</v>
+      </c>
+      <c r="E94" s="60">
+        <v>0.20155999999999999</v>
+      </c>
+      <c r="F94" s="61">
+        <v>1.0920540000000001</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A95" s="53"/>
+      <c r="B95" s="58" t="s">
         <v>154</v>
       </c>
-      <c r="C93" s="60"/>
-      <c r="D93" s="61"/>
-      <c r="E93" s="61"/>
-      <c r="F93" s="61"/>
-      <c r="G93" s="61"/>
-      <c r="H93" s="62"/>
-    </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A94" s="54"/>
-      <c r="B94" s="59" t="s">
+      <c r="C95" s="59">
+        <v>3.7319059999999999</v>
+      </c>
+      <c r="D95" s="60">
+        <v>0.472464</v>
+      </c>
+      <c r="E95" s="60">
+        <v>0.155028</v>
+      </c>
+      <c r="F95" s="61">
+        <v>0.65520500000000004</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A96" s="53"/>
+      <c r="B96" s="62" t="s">
         <v>155</v>
       </c>
-      <c r="C94" s="60"/>
-      <c r="D94" s="61"/>
-      <c r="E94" s="61"/>
-      <c r="F94" s="61"/>
-      <c r="G94" s="61"/>
-      <c r="H94" s="62"/>
-    </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A95" s="54"/>
-      <c r="B95" s="59" t="s">
+      <c r="C96" s="63">
+        <v>5.3088749999999996</v>
+      </c>
+      <c r="D96" s="64">
+        <v>0.64666699999999999</v>
+      </c>
+      <c r="E96" s="64">
+        <v>0.161</v>
+      </c>
+      <c r="F96" s="65">
+        <v>1.1608670000000001</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A97" s="53"/>
+      <c r="B97" s="69" t="s">
         <v>156</v>
       </c>
-      <c r="C95" s="60"/>
-      <c r="D95" s="61"/>
-      <c r="E95" s="61"/>
-      <c r="F95" s="61"/>
-      <c r="G95" s="61"/>
-      <c r="H95" s="62"/>
-    </row>
-    <row r="96" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A96" s="54"/>
-      <c r="B96" s="63" t="s">
+      <c r="C97" s="70">
+        <v>4.2019570000000002</v>
+      </c>
+      <c r="D97" s="71">
+        <v>0.48051300000000002</v>
+      </c>
+      <c r="E97" s="71">
+        <v>0.168264</v>
+      </c>
+      <c r="F97" s="72">
+        <v>0.68963399999999997</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A98" s="53"/>
+      <c r="B98" s="62" t="s">
         <v>157</v>
       </c>
-      <c r="C96" s="64"/>
-      <c r="D96" s="65"/>
-      <c r="E96" s="65"/>
-      <c r="F96" s="65"/>
-      <c r="G96" s="65"/>
-      <c r="H96" s="66"/>
-    </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A97" s="54"/>
-      <c r="B97" s="70" t="s">
+      <c r="C98" s="63">
+        <v>4.497941</v>
+      </c>
+      <c r="D98" s="64">
+        <v>0.51893800000000001</v>
+      </c>
+      <c r="E98" s="64">
+        <v>0.18443799999999999</v>
+      </c>
+      <c r="F98" s="65">
+        <v>0.88656199999999996</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A99" s="74"/>
+      <c r="B99" s="75"/>
+      <c r="C99" s="67"/>
+      <c r="D99" s="67"/>
+      <c r="E99" s="67"/>
+      <c r="F99" s="67"/>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A100" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="C97" s="71"/>
-      <c r="D97" s="72"/>
-      <c r="E97" s="72"/>
-      <c r="F97" s="72"/>
-      <c r="G97" s="72"/>
-      <c r="H97" s="73"/>
-    </row>
-    <row r="98" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A98" s="54"/>
-      <c r="B98" s="63" t="s">
+      <c r="C100" s="76"/>
+      <c r="D100" s="76"/>
+      <c r="E100" s="76"/>
+      <c r="F100" s="76"/>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A101" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="C98" s="64"/>
-      <c r="D98" s="65"/>
-      <c r="E98" s="65"/>
-      <c r="F98" s="65"/>
-      <c r="G98" s="65"/>
-      <c r="H98" s="66"/>
-    </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A99" s="75"/>
-      <c r="B99" s="76"/>
-      <c r="C99" s="68"/>
-      <c r="D99" s="68"/>
-      <c r="E99" s="68"/>
-      <c r="F99" s="68"/>
-      <c r="G99" s="68"/>
-      <c r="H99" s="68"/>
-    </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A100" s="1" t="s">
+      <c r="C101" s="76"/>
+      <c r="D101" s="76"/>
+      <c r="E101" s="76"/>
+      <c r="F101" s="76"/>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A102" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="C100" s="77"/>
-      <c r="D100" s="77"/>
-      <c r="E100" s="77"/>
-      <c r="F100" s="77"/>
-      <c r="G100" s="77"/>
-      <c r="H100" s="77"/>
-    </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A101" s="1" t="s">
+      <c r="C102" s="76"/>
+      <c r="D102" s="76"/>
+      <c r="E102" s="76"/>
+      <c r="F102" s="76"/>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A103" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="C101" s="77"/>
-      <c r="D101" s="77"/>
-      <c r="E101" s="77"/>
-      <c r="F101" s="77"/>
-      <c r="G101" s="77"/>
-      <c r="H101" s="77"/>
-    </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A102" s="1" t="s">
+      <c r="C103" s="76"/>
+      <c r="D103" s="76"/>
+      <c r="E103" s="76"/>
+      <c r="F103" s="76"/>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A104" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="C102" s="77"/>
-      <c r="D102" s="77"/>
-      <c r="E102" s="77"/>
-      <c r="F102" s="77"/>
-      <c r="G102" s="77"/>
-      <c r="H102" s="77"/>
-    </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A103" s="1" t="s">
+      <c r="C104" s="76"/>
+      <c r="D104" s="76"/>
+      <c r="E104" s="76"/>
+      <c r="F104" s="76"/>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C105" s="76"/>
+      <c r="D105" s="76"/>
+      <c r="E105" s="76"/>
+      <c r="F105" s="76"/>
+    </row>
+    <row r="106" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B106" s="77"/>
+      <c r="C106" s="76"/>
+      <c r="D106" s="76"/>
+      <c r="E106" s="76"/>
+      <c r="F106" s="76"/>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B107" s="78" t="s">
         <v>163</v>
       </c>
-      <c r="C103" s="77"/>
-      <c r="D103" s="77"/>
-      <c r="E103" s="77"/>
-      <c r="F103" s="77"/>
-      <c r="G103" s="77"/>
-      <c r="H103" s="77"/>
-    </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A104" s="1" t="s">
+      <c r="C107" s="76"/>
+      <c r="D107" s="76"/>
+      <c r="E107" s="76"/>
+      <c r="F107" s="76"/>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B108" s="2"/>
+      <c r="C108" s="76"/>
+      <c r="D108" s="76"/>
+      <c r="E108" s="76"/>
+      <c r="F108" s="76"/>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B109" s="81" t="s">
+        <v>165</v>
+      </c>
+      <c r="C109" s="76"/>
+      <c r="D109" s="76"/>
+      <c r="E109" s="76"/>
+      <c r="F109" s="76"/>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B110" s="81" t="s">
+        <v>166</v>
+      </c>
+      <c r="C110" s="76"/>
+      <c r="D110" s="76"/>
+      <c r="E110" s="76"/>
+      <c r="F110" s="76"/>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B111" s="81" t="s">
+        <v>167</v>
+      </c>
+      <c r="C111" s="76"/>
+      <c r="D111" s="76"/>
+      <c r="E111" s="76"/>
+      <c r="F111" s="76"/>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B112" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="C104" s="77"/>
-      <c r="D104" s="77"/>
-      <c r="E104" s="77"/>
-      <c r="F104" s="77"/>
-      <c r="G104" s="77"/>
-      <c r="H104" s="77"/>
-    </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C105" s="77"/>
-      <c r="D105" s="77"/>
-      <c r="E105" s="77"/>
-      <c r="F105" s="77"/>
-      <c r="G105" s="77"/>
-      <c r="H105" s="77"/>
-    </row>
-    <row r="106" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B106" s="78"/>
-      <c r="C106" s="77"/>
-      <c r="D106" s="77"/>
-      <c r="E106" s="77"/>
-      <c r="F106" s="77"/>
-      <c r="G106" s="77"/>
-      <c r="H106" s="77"/>
-    </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B107" s="79" t="s">
-        <v>165</v>
-      </c>
-      <c r="C107" s="77"/>
-      <c r="D107" s="77"/>
-      <c r="E107" s="77"/>
-      <c r="F107" s="77"/>
-      <c r="G107" s="77"/>
-      <c r="H107" s="77"/>
-    </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B108" s="2"/>
-      <c r="C108" s="77"/>
-      <c r="D108" s="77"/>
-      <c r="E108" s="77"/>
-      <c r="F108" s="77"/>
-      <c r="G108" s="77"/>
-      <c r="H108" s="77"/>
-    </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B109" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="C109" s="77"/>
-      <c r="D109" s="77"/>
-      <c r="E109" s="77"/>
-      <c r="F109" s="77"/>
-      <c r="G109" s="77"/>
-      <c r="H109" s="77"/>
-    </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B110" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="C110" s="77"/>
-      <c r="D110" s="77"/>
-      <c r="E110" s="77"/>
-      <c r="F110" s="77"/>
-      <c r="G110" s="77"/>
-      <c r="H110" s="77"/>
-    </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B111" s="82" t="s">
-        <v>169</v>
-      </c>
-      <c r="C111" s="77"/>
-      <c r="D111" s="77"/>
-      <c r="E111" s="77"/>
-      <c r="F111" s="77"/>
-      <c r="G111" s="77"/>
-      <c r="H111" s="77"/>
-    </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B112" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="C112" s="77"/>
-      <c r="D112" s="77"/>
-      <c r="E112" s="77"/>
-      <c r="F112" s="77"/>
-      <c r="G112" s="77"/>
-      <c r="H112" s="77"/>
-    </row>
-    <row r="113" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B113" s="80"/>
-      <c r="C113" s="77"/>
-      <c r="D113" s="77"/>
-      <c r="E113" s="77"/>
-      <c r="F113" s="77"/>
-      <c r="G113" s="77"/>
-      <c r="H113" s="77"/>
+      <c r="C112" s="76"/>
+      <c r="D112" s="76"/>
+      <c r="E112" s="76"/>
+      <c r="F112" s="76"/>
+    </row>
+    <row r="113" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B113" s="79"/>
+      <c r="C113" s="76"/>
+      <c r="D113" s="76"/>
+      <c r="E113" s="76"/>
+      <c r="F113" s="76"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="D4:O7"/>
-  </mergeCells>
   <hyperlinks>
-    <hyperlink ref="B113" r:id="rId1" display="To download the entire dataset as a flat file in compressed CSV form, click here." xr:uid="{D0B73E24-0A87-4A9D-86B2-032CA53575F6}"/>
-    <hyperlink ref="B109" r:id="rId2" location="Indicators!A1" display="For more information about the indicators presented in this table, go to the List of indicators, descriptions and details." xr:uid="{CF59B990-A19C-4AE9-BEB1-60A8C75B078D}"/>
-    <hyperlink ref="B110" r:id="rId3" location="'Country groupings'!A1" display="To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators" xr:uid="{FF47DAD5-FF08-47CE-8D61-015BEB0CBC70}"/>
-    <hyperlink ref="B107" r:id="rId4" display="If you would like to Implore these data further, look up historic values for these indicators, or produce interactive visualisations of these data, please click here the visit the Africa's Development Dynamics website." xr:uid="{B7A68995-8993-4F63-9559-C7916BF3E28D}"/>
-    <hyperlink ref="B112" r:id="rId5" display="CLICK HERE to download all data for the Africa's Development Dynamics Statistical Annex in an Excel format, including historic data back to 2000." xr:uid="{78A97BBD-3609-4219-9887-965CFD1B49AD}"/>
-    <hyperlink ref="B111" r:id="rId6" xr:uid="{05D26EB8-ED08-44D6-9349-B3CA318AA93F}"/>
+    <hyperlink ref="B113" r:id="rId1" display="To download the entire dataset as a flat file in compressed CSV form, click here." xr:uid="{72E795CB-F77A-4597-AE7E-8E3D1FAB8404}"/>
+    <hyperlink ref="B109" r:id="rId2" xr:uid="{40F75BBD-2820-42A6-8A8C-5D4E3A9AF075}"/>
+    <hyperlink ref="B110" r:id="rId3" xr:uid="{6C9C6BF6-A239-4B47-B402-274A5633045D}"/>
+    <hyperlink ref="B107" r:id="rId4" xr:uid="{1DB795BB-56A1-4087-BAE8-C25821742D9D}"/>
+    <hyperlink ref="B112" r:id="rId5" display="CLICK HERE to download all data for the Africa's Development Dynamics Statistical Annex in an Excel format, including historic data back to 2000." xr:uid="{34F129F6-5B58-4B1A-861C-9A6D54E78127}"/>
+    <hyperlink ref="B111" r:id="rId6" xr:uid="{749A904A-027D-414C-9F4C-C7C945F379E0}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="50" fitToWidth="0" orientation="portrait" r:id="rId7"/>

--- a/AfDD_2025_Annex_Table_Tab26.xlsx
+++ b/AfDD_2025_Annex_Table_Tab26.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main.oecd.org\ASgenDEV\AFRICASTATS\Statistical Annex (Final written files are in S)\Output tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D95942D-B6C2-4B4A-A033-F04C690AF581}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8B2D5D9D-7F75-4A74-8F7C-B9BCF3AAC872}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-34710" yWindow="-1485" windowWidth="19410" windowHeight="20985" xr2:uid="{DEF6FC5D-1AA3-43DA-96CF-878EDA4A36F5}"/>
+    <workbookView xWindow="28680" yWindow="-6075" windowWidth="29040" windowHeight="15720" xr2:uid="{AFF561B6-F117-47CF-8B2A-D61C79FB1E5E}"/>
   </bookViews>
   <sheets>
     <sheet name="Tab26" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="168">
   <si>
     <t>Table 26: Subjective well-being</t>
   </si>
@@ -522,7 +522,7 @@
     <t>ROW = "Rest of world"; LAC = "Latin American and Caribbean countries".</t>
   </si>
   <si>
-    <t>Regional Economic Communities: CEN-SAD = "Community of Sahel-Saharan States"; COMESA = "Common Market for Eastern and Southern Africa"; EAC = "East African Community"; ECCAS = "Economic Community of Central African States"; ECOWAS = "Economic Community of West African States"; IGAD = "Intergovernmental Authority on Development"; SADC = "Southern African Development Community"; UMA = "Arab Maghreb Union"; PALOP = "PaÃ­ses Africanos de LÃ­ngua Oficial Portuguesa"; ASEAN = "Association of Southeast Asian Nations"; MERCOSUR = "Mercado ComÃºn del Sur". EU27 = "European Union (27 members)". OECD = "Organisation for Economic Co-operation and Development".</t>
+    <t>Regional Economic Communities: CEN-SAD = "Community of Sahel-Saharan States"; COMESA = "Common Market for Eastern and Southern Africa"; EAC = "East African Community"; ECCAS = "Economic Community of Central African States"; ECOWAS = "Economic Community of West African States"; IGAD = "Intergovernmental Authority on Development"; SADC = "Southern African Development Community"; UMA = "Arab Maghreb Union"; PALOP = "Países Africanos de Língua Oficial Portuguesa"; ASEAN = "Association of Southeast Asian Nations"; MERCOSUR = "Mercado Común del Sur". EU27 = "European Union (27 members)". OECD = "Organisation for Economic Co-operation and Development".</t>
   </si>
   <si>
     <t>Source: World Happiness Report Online Dataset 2025</t>
@@ -1431,25 +1431,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{028BC9BC-B761-4151-8460-085F989011FE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{092E48D5-E199-40D3-A23D-9DA4EF5B1AC7}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:F113"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="33.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="6" width="14.42578125" style="80" customWidth="1"/>
-    <col min="7" max="24" width="14.42578125" customWidth="1"/>
+    <col min="1" max="1" width="5.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="6" width="14.453125" style="80" customWidth="1"/>
+    <col min="7" max="24" width="14.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
         <v>0</v>
@@ -1458,7 +1456,7 @@
       <c r="E1" s="3"/>
       <c r="F1" s="3"/>
     </row>
-    <row r="2" spans="1:6" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="32" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -1478,7 +1476,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="9" t="s">
         <v>7</v>
       </c>
@@ -1498,7 +1496,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" s="9" t="s">
         <v>10</v>
       </c>
@@ -1506,19 +1504,19 @@
         <v>11</v>
       </c>
       <c r="C4" s="15">
-        <v>3.383</v>
+        <v>3.4380000000000002</v>
       </c>
       <c r="D4" s="16">
-        <v>0.56699999999999995</v>
+        <v>0.69699999999999995</v>
       </c>
       <c r="E4" s="16">
-        <v>1.4E-2</v>
+        <v>1.7999999999999999E-2</v>
       </c>
       <c r="F4" s="17">
-        <v>0.96899999999999997</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1.1459999999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="9" t="s">
         <v>12</v>
       </c>
@@ -1526,19 +1524,19 @@
         <v>13</v>
       </c>
       <c r="C5" s="15">
-        <v>3.5019999999999998</v>
+        <v>3.774</v>
       </c>
       <c r="D5" s="19">
-        <v>0.28399999999999997</v>
+        <v>0.42799999999999999</v>
       </c>
       <c r="E5" s="19">
-        <v>5.8999999999999997E-2</v>
+        <v>5.3999999999999999E-2</v>
       </c>
       <c r="F5" s="20">
-        <v>0.92500000000000004</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1.1519999999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" s="9" t="s">
         <v>14</v>
       </c>
@@ -1546,19 +1544,19 @@
         <v>15</v>
       </c>
       <c r="C6" s="15">
-        <v>3.1859999999999999</v>
+        <v>3.7570000000000001</v>
       </c>
       <c r="D6" s="19">
-        <v>0.52300000000000002</v>
+        <v>0.60599999999999998</v>
       </c>
       <c r="E6" s="19">
-        <v>8.2000000000000003E-2</v>
+        <v>6.5000000000000002E-2</v>
       </c>
       <c r="F6" s="20">
-        <v>0.85099999999999998</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1.131</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" s="9" t="s">
         <v>16</v>
       </c>
@@ -1566,19 +1564,19 @@
         <v>17</v>
       </c>
       <c r="C7" s="15">
-        <v>3.4209999999999998</v>
+        <v>3.26</v>
       </c>
       <c r="D7" s="19">
-        <v>0.57099999999999995</v>
+        <v>0.67700000000000005</v>
       </c>
       <c r="E7" s="19">
-        <v>0.13500000000000001</v>
+        <v>0.115</v>
       </c>
       <c r="F7" s="20">
-        <v>0.41</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.48899999999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" s="9" t="s">
         <v>18</v>
       </c>
@@ -1586,19 +1584,19 @@
         <v>19</v>
       </c>
       <c r="C8" s="15">
-        <v>5.2160000000000002</v>
+        <v>5.19</v>
       </c>
       <c r="D8" s="19">
-        <v>0.72799999999999998</v>
+        <v>0.81299999999999994</v>
       </c>
       <c r="E8" s="19">
-        <v>0.158</v>
+        <v>0.127</v>
       </c>
       <c r="F8" s="20">
-        <v>0.88300000000000001</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1.131</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" s="9" t="s">
         <v>20</v>
       </c>
@@ -1606,19 +1604,19 @@
         <v>21</v>
       </c>
       <c r="C9" s="21">
-        <v>4.8319999999999999</v>
+        <v>4.9109999999999996</v>
       </c>
       <c r="D9" s="19">
-        <v>0.47</v>
+        <v>0.56399999999999995</v>
       </c>
       <c r="E9" s="19">
-        <v>6.9000000000000006E-2</v>
+        <v>5.1999999999999998E-2</v>
       </c>
       <c r="F9" s="20">
-        <v>1.212</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1.482</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" s="9" t="s">
         <v>22</v>
       </c>
@@ -1626,19 +1624,19 @@
         <v>23</v>
       </c>
       <c r="C10" s="21">
-        <v>5.4219999999999997</v>
+        <v>5.2130000000000001</v>
       </c>
       <c r="D10" s="19">
-        <v>0.53700000000000003</v>
+        <v>0.67600000000000005</v>
       </c>
       <c r="E10" s="19">
-        <v>7.8E-2</v>
+        <v>6.4000000000000001E-2</v>
       </c>
       <c r="F10" s="20">
-        <v>1.369</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1.4650000000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" s="9" t="s">
         <v>24</v>
       </c>
@@ -1646,19 +1644,19 @@
         <v>25</v>
       </c>
       <c r="C11" s="15">
-        <v>3.5019999999999998</v>
+        <v>3.9119999999999999</v>
       </c>
       <c r="D11" s="16">
-        <v>0.72699999999999998</v>
+        <v>0.872</v>
       </c>
       <c r="E11" s="16">
-        <v>0.16800000000000001</v>
+        <v>0.13100000000000001</v>
       </c>
       <c r="F11" s="17">
-        <v>0.80900000000000005</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>1.0129999999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A12" s="9" t="s">
         <v>26</v>
       </c>
@@ -1666,37 +1664,37 @@
         <v>27</v>
       </c>
       <c r="C12" s="23">
-        <v>3.3410000000000002</v>
+        <v>3.3959999999999999</v>
       </c>
       <c r="D12" s="24">
-        <v>0.48699999999999999</v>
+        <v>0.59799999999999998</v>
       </c>
       <c r="E12" s="24">
-        <v>9.6000000000000002E-2</v>
+        <v>6.5000000000000002E-2</v>
       </c>
       <c r="F12" s="25">
-        <v>0.85</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>0.96099999999999997</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A13" s="26"/>
       <c r="B13" s="27" t="s">
         <v>28</v>
       </c>
       <c r="C13" s="28">
-        <v>3.96</v>
+        <v>4.0646000000000004</v>
       </c>
       <c r="D13" s="29">
-        <v>0.54377799999999998</v>
+        <v>0.65900000000000003</v>
       </c>
       <c r="E13" s="29">
-        <v>9.5444000000000001E-2</v>
+        <v>7.6777999999999999E-2</v>
       </c>
       <c r="F13" s="30">
-        <v>0.91977799999999998</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1.1077779999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" s="9" t="s">
         <v>29</v>
       </c>
@@ -1716,7 +1714,7 @@
         <v>6.2E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" s="9" t="s">
         <v>31</v>
       </c>
@@ -1724,19 +1722,19 @@
         <v>32</v>
       </c>
       <c r="C15" s="21">
-        <v>4.8739999999999997</v>
+        <v>4.8869999999999996</v>
       </c>
       <c r="D15" s="19">
-        <v>0.52100000000000002</v>
+        <v>0.66200000000000003</v>
       </c>
       <c r="E15" s="19">
-        <v>0.126</v>
+        <v>9.9000000000000005E-2</v>
       </c>
       <c r="F15" s="20">
-        <v>0.85599999999999998</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.98599999999999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" s="9" t="s">
         <v>33</v>
       </c>
@@ -1756,7 +1754,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" s="9" t="s">
         <v>35</v>
       </c>
@@ -1764,19 +1762,19 @@
         <v>36</v>
       </c>
       <c r="C17" s="32">
-        <v>4.4710000000000001</v>
+        <v>4.3840000000000003</v>
       </c>
       <c r="D17" s="33">
-        <v>0.41099999999999998</v>
+        <v>0.47699999999999998</v>
       </c>
       <c r="E17" s="33">
-        <v>0.218</v>
+        <v>0.17499999999999999</v>
       </c>
       <c r="F17" s="34">
-        <v>0.80500000000000005</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.90200000000000002</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" s="9" t="s">
         <v>37</v>
       </c>
@@ -1784,19 +1782,19 @@
         <v>38</v>
       </c>
       <c r="C18" s="32">
-        <v>5.2210000000000001</v>
+        <v>5.03</v>
       </c>
       <c r="D18" s="33">
-        <v>0.52300000000000002</v>
+        <v>0.626</v>
       </c>
       <c r="E18" s="33">
-        <v>0.124</v>
+        <v>8.2000000000000003E-2</v>
       </c>
       <c r="F18" s="34">
-        <v>0.622</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.79600000000000004</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19" s="9" t="s">
         <v>39</v>
       </c>
@@ -1804,19 +1802,19 @@
         <v>40</v>
       </c>
       <c r="C19" s="15">
-        <v>3.2949999999999999</v>
+        <v>3.4689999999999999</v>
       </c>
       <c r="D19" s="16">
-        <v>0.47299999999999998</v>
+        <v>0.6</v>
       </c>
       <c r="E19" s="16">
-        <v>0.189</v>
+        <v>0.151</v>
       </c>
       <c r="F19" s="17">
-        <v>0.66500000000000004</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.92900000000000005</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20" s="9" t="s">
         <v>41</v>
       </c>
@@ -1836,7 +1834,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21" s="9" t="s">
         <v>43</v>
       </c>
@@ -1844,19 +1842,19 @@
         <v>44</v>
       </c>
       <c r="C21" s="32">
-        <v>5.1059999999999999</v>
+        <v>5.12</v>
       </c>
       <c r="D21" s="33">
-        <v>0.51600000000000001</v>
+        <v>0.65100000000000002</v>
       </c>
       <c r="E21" s="33">
-        <v>4.4999999999999998E-2</v>
+        <v>4.2000000000000003E-2</v>
       </c>
       <c r="F21" s="34">
-        <v>1.038</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>1.224</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A22" s="9" t="s">
         <v>45</v>
       </c>
@@ -1876,25 +1874,25 @@
         <v>9</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A23" s="26"/>
       <c r="B23" s="27" t="s">
         <v>47</v>
       </c>
       <c r="C23" s="28">
-        <v>4.3168430000000004</v>
+        <v>4.3058430000000003</v>
       </c>
       <c r="D23" s="29">
-        <v>0.43354500000000001</v>
+        <v>0.51525900000000002</v>
       </c>
       <c r="E23" s="29">
-        <v>0.16107299999999999</v>
+        <v>0.13921600000000001</v>
       </c>
       <c r="F23" s="30">
-        <v>0.57828599999999997</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.69985699999999995</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A24" s="9" t="s">
         <v>48</v>
       </c>
@@ -1902,19 +1900,19 @@
         <v>49</v>
       </c>
       <c r="C24" s="40">
-        <v>3.5659999999999998</v>
+        <v>3.754</v>
       </c>
       <c r="D24" s="41">
-        <v>0.17199999999999999</v>
+        <v>0.26</v>
       </c>
       <c r="E24" s="41">
-        <v>0.128</v>
+        <v>0.11700000000000001</v>
       </c>
       <c r="F24" s="42">
-        <v>0.32800000000000001</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.501</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A25" s="9" t="s">
         <v>50</v>
       </c>
@@ -1934,7 +1932,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A26" s="9" t="s">
         <v>52</v>
       </c>
@@ -1954,7 +1952,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A27" s="9" t="s">
         <v>54</v>
       </c>
@@ -1962,19 +1960,19 @@
         <v>55</v>
       </c>
       <c r="C27" s="21">
-        <v>3.8610000000000002</v>
+        <v>3.8980000000000001</v>
       </c>
       <c r="D27" s="19">
-        <v>0.441</v>
+        <v>0.54</v>
       </c>
       <c r="E27" s="19">
-        <v>0.27</v>
+        <v>0.182</v>
       </c>
       <c r="F27" s="20">
-        <v>0.91500000000000004</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1.0509999999999999</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A28" s="9" t="s">
         <v>56</v>
       </c>
@@ -1982,19 +1980,19 @@
         <v>57</v>
       </c>
       <c r="C28" s="21">
-        <v>4.47</v>
+        <v>4.51</v>
       </c>
       <c r="D28" s="19">
-        <v>0.51900000000000002</v>
+        <v>0.64900000000000002</v>
       </c>
       <c r="E28" s="19">
-        <v>0.28199999999999997</v>
+        <v>0.22</v>
       </c>
       <c r="F28" s="20">
-        <v>0.89500000000000002</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1.0469999999999999</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A29" s="9" t="s">
         <v>58</v>
       </c>
@@ -2002,19 +2000,19 @@
         <v>59</v>
       </c>
       <c r="C29" s="21">
-        <v>4.2279999999999998</v>
+        <v>4.157</v>
       </c>
       <c r="D29" s="19">
-        <v>0.25</v>
+        <v>0.29199999999999998</v>
       </c>
       <c r="E29" s="19">
-        <v>0.17199999999999999</v>
+        <v>0.13100000000000001</v>
       </c>
       <c r="F29" s="20">
-        <v>0.82299999999999995</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.93799999999999994</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A30" s="9" t="s">
         <v>60</v>
       </c>
@@ -2022,19 +2020,19 @@
         <v>61</v>
       </c>
       <c r="C30" s="21">
-        <v>5.8159999999999998</v>
+        <v>5.8319999999999999</v>
       </c>
       <c r="D30" s="19">
-        <v>0.64100000000000001</v>
+        <v>0.76100000000000001</v>
       </c>
       <c r="E30" s="19">
-        <v>0.123</v>
+        <v>9.5000000000000001E-2</v>
       </c>
       <c r="F30" s="20">
-        <v>1.3580000000000001</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1.5209999999999999</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A31" s="9" t="s">
         <v>62</v>
       </c>
@@ -2054,7 +2052,7 @@
         <v>0.13300000000000001</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A32" s="9" t="s">
         <v>64</v>
       </c>
@@ -2074,7 +2072,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A33" s="9" t="s">
         <v>66</v>
       </c>
@@ -2082,19 +2080,19 @@
         <v>67</v>
       </c>
       <c r="C33" s="21">
-        <v>4.6680000000000001</v>
-      </c>
-      <c r="D33" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="E33" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="F33" s="20" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+        <v>4.3470000000000004</v>
+      </c>
+      <c r="D33" s="19">
+        <v>0.91600000000000004</v>
+      </c>
+      <c r="E33" s="19">
+        <v>0.20599999999999999</v>
+      </c>
+      <c r="F33" s="20">
+        <v>0.877</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A34" s="9" t="s">
         <v>68</v>
       </c>
@@ -2114,7 +2112,7 @@
         <v>0.55327899999999997</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A35" s="9" t="s">
         <v>70</v>
       </c>
@@ -2134,7 +2132,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A36" s="9" t="s">
         <v>72</v>
       </c>
@@ -2142,19 +2140,19 @@
         <v>73</v>
       </c>
       <c r="C36" s="21">
-        <v>3.7810000000000001</v>
+        <v>3.8</v>
       </c>
       <c r="D36" s="19">
-        <v>0.70899999999999996</v>
+        <v>0.85799999999999998</v>
       </c>
       <c r="E36" s="19">
-        <v>0.191</v>
+        <v>0.153</v>
       </c>
       <c r="F36" s="20">
-        <v>0.70599999999999996</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>0.90800000000000003</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A37" s="9" t="s">
         <v>74</v>
       </c>
@@ -2162,37 +2160,37 @@
         <v>75</v>
       </c>
       <c r="C37" s="23">
-        <v>4.3719999999999999</v>
+        <v>4.4610000000000003</v>
       </c>
       <c r="D37" s="24">
-        <v>0.58699999999999997</v>
+        <v>0.751</v>
       </c>
       <c r="E37" s="24">
-        <v>0.17799999999999999</v>
+        <v>0.14799999999999999</v>
       </c>
       <c r="F37" s="25">
-        <v>1.151</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>1.3420000000000001</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A38" s="26"/>
       <c r="B38" s="27" t="s">
         <v>76</v>
       </c>
       <c r="C38" s="28">
-        <v>4.0895999999999999</v>
+        <v>4.0893269999999999</v>
       </c>
       <c r="D38" s="29">
-        <v>0.44506800000000002</v>
+        <v>0.57136100000000001</v>
       </c>
       <c r="E38" s="29">
-        <v>0.193437</v>
+        <v>0.16489300000000001</v>
       </c>
       <c r="F38" s="30">
-        <v>0.76247500000000001</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.88712800000000003</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A39" s="9" t="s">
         <v>77</v>
       </c>
@@ -2200,19 +2198,19 @@
         <v>78</v>
       </c>
       <c r="C39" s="44">
-        <v>5.3639999999999999</v>
+        <v>5.5709999999999997</v>
       </c>
       <c r="D39" s="45">
-        <v>0.247</v>
+        <v>0.52200000000000002</v>
       </c>
       <c r="E39" s="45">
-        <v>9.0999999999999998E-2</v>
+        <v>5.7000000000000002E-2</v>
       </c>
       <c r="F39" s="46">
-        <v>1.1910000000000001</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1.363</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A40" s="9" t="s">
         <v>79</v>
       </c>
@@ -2220,19 +2218,19 @@
         <v>80</v>
       </c>
       <c r="C40" s="21">
-        <v>3.9769999999999999</v>
+        <v>3.8170000000000002</v>
       </c>
       <c r="D40" s="19">
-        <v>0.49</v>
+        <v>0.59299999999999997</v>
       </c>
       <c r="E40" s="19">
-        <v>2.5000000000000001E-2</v>
+        <v>1.7999999999999999E-2</v>
       </c>
       <c r="F40" s="20">
-        <v>0.996</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1.075</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A41" s="9" t="s">
         <v>81</v>
       </c>
@@ -2240,19 +2238,19 @@
         <v>82</v>
       </c>
       <c r="C41" s="32">
-        <v>5.8659999999999997</v>
+        <v>5.82</v>
       </c>
       <c r="D41" s="33">
-        <v>0.59199999999999997</v>
+        <v>0.72399999999999998</v>
       </c>
       <c r="E41" s="33">
         <v>0.111</v>
       </c>
       <c r="F41" s="34">
-        <v>1.1000000000000001</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1.3089999999999999</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A42" s="9" t="s">
         <v>83</v>
       </c>
@@ -2260,19 +2258,19 @@
         <v>84</v>
       </c>
       <c r="C42" s="32">
-        <v>4.5049999999999999</v>
+        <v>4.5419999999999998</v>
       </c>
       <c r="D42" s="33">
-        <v>0.34300000000000003</v>
+        <v>0.45400000000000001</v>
       </c>
       <c r="E42" s="33">
-        <v>0.13300000000000001</v>
+        <v>0.113</v>
       </c>
       <c r="F42" s="34">
-        <v>0.70499999999999996</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.91900000000000004</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A43" s="9" t="s">
         <v>85</v>
       </c>
@@ -2280,19 +2278,19 @@
         <v>86</v>
       </c>
       <c r="C43" s="21">
-        <v>4.7949999999999999</v>
+        <v>4.6219999999999999</v>
       </c>
       <c r="D43" s="19">
-        <v>0.63100000000000001</v>
+        <v>0.748</v>
       </c>
       <c r="E43" s="19">
-        <v>4.2000000000000003E-2</v>
+        <v>3.1E-2</v>
       </c>
       <c r="F43" s="20">
-        <v>0.47099999999999997</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>0.63500000000000001</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A44" s="9" t="s">
         <v>87</v>
       </c>
@@ -2300,37 +2298,37 @@
         <v>88</v>
       </c>
       <c r="C44" s="36">
-        <v>4.4219999999999997</v>
+        <v>4.5519999999999996</v>
       </c>
       <c r="D44" s="37">
-        <v>0.254</v>
+        <v>0.38200000000000001</v>
       </c>
       <c r="E44" s="37">
-        <v>2.4E-2</v>
+        <v>3.2000000000000001E-2</v>
       </c>
       <c r="F44" s="38">
-        <v>0.95499999999999996</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>1.224</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A45" s="26"/>
       <c r="B45" s="27" t="s">
         <v>89</v>
       </c>
       <c r="C45" s="28">
-        <v>4.8215000000000003</v>
+        <v>4.8206670000000003</v>
       </c>
       <c r="D45" s="29">
-        <v>0.42616700000000002</v>
+        <v>0.57050000000000001</v>
       </c>
       <c r="E45" s="29">
-        <v>7.0999999999999994E-2</v>
+        <v>6.0332999999999998E-2</v>
       </c>
       <c r="F45" s="30">
-        <v>0.90300000000000002</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1.0874999999999999</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A46" s="9" t="s">
         <v>90</v>
       </c>
@@ -2338,19 +2336,19 @@
         <v>91</v>
       </c>
       <c r="C46" s="40">
-        <v>4.3769999999999998</v>
+        <v>4.3570000000000002</v>
       </c>
       <c r="D46" s="41">
-        <v>0.56699999999999995</v>
+        <v>0.67900000000000005</v>
       </c>
       <c r="E46" s="41">
-        <v>0.112</v>
+        <v>9.1999999999999998E-2</v>
       </c>
       <c r="F46" s="42">
-        <v>0.128</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.22800000000000001</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A47" s="9" t="s">
         <v>92</v>
       </c>
@@ -2358,19 +2356,19 @@
         <v>93</v>
       </c>
       <c r="C47" s="21">
-        <v>4.548</v>
+        <v>4.383</v>
       </c>
       <c r="D47" s="19">
-        <v>0.48299999999999998</v>
+        <v>0.67100000000000004</v>
       </c>
       <c r="E47" s="19">
-        <v>0.17299999999999999</v>
+        <v>0.14199999999999999</v>
       </c>
       <c r="F47" s="20">
-        <v>0.68500000000000005</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.82799999999999996</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A48" s="9" t="s">
         <v>94</v>
       </c>
@@ -2390,7 +2388,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A49" s="9" t="s">
         <v>96</v>
       </c>
@@ -2398,19 +2396,19 @@
         <v>97</v>
       </c>
       <c r="C49" s="21">
-        <v>5.08</v>
+        <v>5.1020000000000003</v>
       </c>
       <c r="D49" s="19">
-        <v>0.54700000000000004</v>
+        <v>0.66100000000000003</v>
       </c>
       <c r="E49" s="19">
-        <v>0.12</v>
+        <v>0.1</v>
       </c>
       <c r="F49" s="20">
-        <v>0.57799999999999996</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.76</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A50" s="9" t="s">
         <v>98</v>
       </c>
@@ -2418,19 +2416,19 @@
         <v>99</v>
       </c>
       <c r="C50" s="21">
-        <v>4.4850000000000003</v>
+        <v>4.423</v>
       </c>
       <c r="D50" s="19">
-        <v>0.45900000000000002</v>
+        <v>0.61099999999999999</v>
       </c>
       <c r="E50" s="19">
-        <v>0.32400000000000001</v>
+        <v>0.255</v>
       </c>
       <c r="F50" s="20">
-        <v>0.68400000000000005</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.95799999999999996</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A51" s="9" t="s">
         <v>100</v>
       </c>
@@ -2438,19 +2436,19 @@
         <v>101</v>
       </c>
       <c r="C51" s="15">
-        <v>4.2889999999999997</v>
+        <v>4.34</v>
       </c>
       <c r="D51" s="16">
-        <v>0.623</v>
+        <v>0.77100000000000002</v>
       </c>
       <c r="E51" s="16">
-        <v>0.183</v>
+        <v>0.13900000000000001</v>
       </c>
       <c r="F51" s="17">
-        <v>0.747</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1.01</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A52" s="9" t="s">
         <v>102</v>
       </c>
@@ -2458,19 +2456,19 @@
         <v>103</v>
       </c>
       <c r="C52" s="21">
-        <v>5.0229999999999997</v>
+        <v>4.9290000000000003</v>
       </c>
       <c r="D52" s="19">
-        <v>0.52100000000000002</v>
+        <v>0.67600000000000005</v>
       </c>
       <c r="E52" s="19">
-        <v>0.21</v>
+        <v>0.157</v>
       </c>
       <c r="F52" s="20">
-        <v>0.622</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.79100000000000004</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A53" s="9" t="s">
         <v>104</v>
       </c>
@@ -2490,7 +2488,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A54" s="9" t="s">
         <v>106</v>
       </c>
@@ -2498,19 +2496,19 @@
         <v>107</v>
       </c>
       <c r="C54" s="21">
-        <v>4.2690000000000001</v>
+        <v>4.2770000000000001</v>
       </c>
       <c r="D54" s="19">
-        <v>0.54600000000000004</v>
+        <v>0.65300000000000002</v>
       </c>
       <c r="E54" s="19">
-        <v>0.17799999999999999</v>
+        <v>0.14299999999999999</v>
       </c>
       <c r="F54" s="20">
-        <v>0.67300000000000004</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.88800000000000001</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A55" s="9" t="s">
         <v>108</v>
       </c>
@@ -2518,19 +2516,19 @@
         <v>109</v>
       </c>
       <c r="C55" s="21">
-        <v>4.2320000000000002</v>
+        <v>4.3449999999999998</v>
       </c>
       <c r="D55" s="19">
-        <v>0.58599999999999997</v>
+        <v>0.76700000000000002</v>
       </c>
       <c r="E55" s="19">
-        <v>0.12</v>
+        <v>9.2999999999999999E-2</v>
       </c>
       <c r="F55" s="20">
-        <v>0.68799999999999994</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.90800000000000003</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A56" s="9" t="s">
         <v>110</v>
       </c>
@@ -2538,19 +2536,19 @@
         <v>111</v>
       </c>
       <c r="C56" s="21">
-        <v>4.556</v>
+        <v>4.7249999999999996</v>
       </c>
       <c r="D56" s="19">
-        <v>0.61499999999999999</v>
+        <v>0.75900000000000001</v>
       </c>
       <c r="E56" s="19">
-        <v>0.14499999999999999</v>
+        <v>0.122</v>
       </c>
       <c r="F56" s="20">
-        <v>0.67700000000000005</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.79600000000000004</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A57" s="9" t="s">
         <v>112</v>
       </c>
@@ -2558,19 +2556,19 @@
         <v>113</v>
       </c>
       <c r="C57" s="21">
-        <v>4.8810000000000002</v>
+        <v>4.8849999999999998</v>
       </c>
       <c r="D57" s="19">
-        <v>0.56599999999999995</v>
+        <v>0.63900000000000001</v>
       </c>
       <c r="E57" s="19">
-        <v>0.20100000000000001</v>
+        <v>0.17</v>
       </c>
       <c r="F57" s="20">
-        <v>1.075</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1.2450000000000001</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A58" s="9" t="s">
         <v>114</v>
       </c>
@@ -2578,19 +2576,19 @@
         <v>115</v>
       </c>
       <c r="C58" s="21">
-        <v>4.9690000000000003</v>
+        <v>4.8559999999999999</v>
       </c>
       <c r="D58" s="19">
-        <v>0.60699999999999998</v>
+        <v>0.76700000000000002</v>
       </c>
       <c r="E58" s="19">
-        <v>0.152</v>
+        <v>0.129</v>
       </c>
       <c r="F58" s="20">
-        <v>0.751</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.97699999999999998</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A59" s="9" t="s">
         <v>116</v>
       </c>
@@ -2598,19 +2596,19 @@
         <v>117</v>
       </c>
       <c r="C59" s="21">
-        <v>3.2450000000000001</v>
+        <v>2.9980000000000002</v>
       </c>
       <c r="D59" s="19">
-        <v>0.46899999999999997</v>
+        <v>0.61299999999999999</v>
       </c>
       <c r="E59" s="19">
-        <v>0.18099999999999999</v>
+        <v>0.13800000000000001</v>
       </c>
       <c r="F59" s="20">
-        <v>0.56599999999999995</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>0.69199999999999995</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A60" s="9" t="s">
         <v>118</v>
       </c>
@@ -2618,703 +2616,703 @@
         <v>119</v>
       </c>
       <c r="C60" s="23">
-        <v>4.2140000000000004</v>
+        <v>4.3150000000000004</v>
       </c>
       <c r="D60" s="24">
-        <v>0.45300000000000001</v>
+        <v>0.57599999999999996</v>
       </c>
       <c r="E60" s="24">
-        <v>0.127</v>
+        <v>9.7000000000000003E-2</v>
       </c>
       <c r="F60" s="25">
-        <v>0.58599999999999997</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>0.73599999999999999</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A61" s="26"/>
       <c r="B61" s="27" t="s">
         <v>120</v>
       </c>
       <c r="C61" s="28">
-        <v>4.4744619999999999</v>
+        <v>4.4565380000000001</v>
       </c>
       <c r="D61" s="29">
-        <v>0.54169199999999995</v>
+        <v>0.68023100000000003</v>
       </c>
       <c r="E61" s="29">
-        <v>0.17123099999999999</v>
+        <v>0.13669200000000001</v>
       </c>
       <c r="F61" s="30">
-        <v>0.65076900000000004</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>0.83207699999999996</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A62" s="48"/>
       <c r="B62" s="49" t="s">
         <v>121</v>
       </c>
       <c r="C62" s="50">
-        <v>4.2957549999999998</v>
+        <v>4.3112450000000004</v>
       </c>
       <c r="D62" s="51">
-        <v>0.489396</v>
+        <v>0.61149799999999999</v>
       </c>
       <c r="E62" s="51">
-        <v>0.144987</v>
+        <v>0.121188</v>
       </c>
       <c r="F62" s="52">
-        <v>0.75150600000000001</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>0.91293999999999997</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A63" s="48"/>
       <c r="B63" s="49" t="s">
         <v>122</v>
       </c>
       <c r="C63" s="50">
-        <v>5.9143569999999999</v>
+        <v>5.9666180000000004</v>
       </c>
       <c r="D63" s="51">
-        <v>0.65847</v>
+        <v>0.77950900000000001</v>
       </c>
       <c r="E63" s="51">
-        <v>0.153609</v>
+        <v>0.119217</v>
       </c>
       <c r="F63" s="52">
-        <v>1.2525900000000001</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1.4475089999999999</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A64" s="53"/>
       <c r="B64" s="54" t="s">
         <v>123</v>
       </c>
       <c r="C64" s="55">
-        <v>6.0328650000000001</v>
+        <v>6.1554779999999996</v>
       </c>
       <c r="D64" s="56">
-        <v>0.67485399999999995</v>
+        <v>0.82131799999999999</v>
       </c>
       <c r="E64" s="56">
-        <v>0.12816</v>
+        <v>9.4908999999999993E-2</v>
       </c>
       <c r="F64" s="57">
-        <v>1.221873</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1.420091</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A65" s="53"/>
       <c r="B65" s="58" t="s">
         <v>124</v>
       </c>
       <c r="C65" s="59">
-        <v>4.8369999999999997</v>
+        <v>4.9053570000000004</v>
       </c>
       <c r="D65" s="60">
-        <v>0.61838499999999996</v>
+        <v>0.71803799999999995</v>
       </c>
       <c r="E65" s="60">
-        <v>0.18438499999999999</v>
+        <v>0.15</v>
       </c>
       <c r="F65" s="61">
-        <v>1.0302690000000001</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>1.2121150000000001</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A66" s="53"/>
       <c r="B66" s="62" t="s">
         <v>125</v>
       </c>
       <c r="C66" s="63">
-        <v>5.4267010000000004</v>
+        <v>5.4710609999999997</v>
       </c>
       <c r="D66" s="64">
-        <v>0.608205</v>
+        <v>0.72943999999999998</v>
       </c>
       <c r="E66" s="64">
-        <v>0.15104600000000001</v>
+        <v>0.11980399999999999</v>
       </c>
       <c r="F66" s="65">
-        <v>1.1036189999999999</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1.2882009999999999</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A67" s="53"/>
       <c r="B67" s="58" t="s">
         <v>126</v>
       </c>
       <c r="C67" s="59">
-        <v>4.0827220000000004</v>
+        <v>4.1189439999999999</v>
       </c>
       <c r="D67" s="60">
-        <v>0.46293800000000002</v>
+        <v>0.58599999999999997</v>
       </c>
       <c r="E67" s="60">
-        <v>0.14493700000000001</v>
+        <v>0.12558800000000001</v>
       </c>
       <c r="F67" s="61">
-        <v>0.77343799999999996</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.91905899999999996</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A68" s="53"/>
       <c r="B68" s="58" t="s">
         <v>127</v>
       </c>
       <c r="C68" s="59">
-        <v>4.4447229999999998</v>
+        <v>4.4141320000000004</v>
       </c>
       <c r="D68" s="60">
-        <v>0.48409099999999999</v>
+        <v>0.62080100000000005</v>
       </c>
       <c r="E68" s="60">
-        <v>0.14912600000000001</v>
+        <v>0.12812000000000001</v>
       </c>
       <c r="F68" s="61">
-        <v>0.65734999999999999</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.82718999999999998</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A69" s="53"/>
       <c r="B69" s="58" t="s">
         <v>128</v>
       </c>
       <c r="C69" s="59">
-        <v>3.6825139999999998</v>
+        <v>3.7285140000000001</v>
       </c>
       <c r="D69" s="60">
-        <v>0.46751599999999999</v>
+        <v>0.54894399999999999</v>
       </c>
       <c r="E69" s="60">
-        <v>0.20127600000000001</v>
+        <v>0.17727599999999999</v>
       </c>
       <c r="F69" s="61">
-        <v>0.59504000000000001</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.71061099999999999</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A70" s="53"/>
       <c r="B70" s="58" t="s">
         <v>129</v>
       </c>
       <c r="C70" s="59">
-        <v>4.1423220000000001</v>
+        <v>4.1337669999999997</v>
       </c>
       <c r="D70" s="60">
-        <v>0.45697700000000002</v>
+        <v>0.52847699999999997</v>
       </c>
       <c r="E70" s="60">
-        <v>0.16431399999999999</v>
+        <v>0.14518900000000001</v>
       </c>
       <c r="F70" s="61">
-        <v>0.52262500000000001</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.629</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A71" s="53"/>
       <c r="B71" s="58" t="s">
         <v>130</v>
       </c>
       <c r="C71" s="59">
-        <v>4.4744619999999999</v>
+        <v>4.4565380000000001</v>
       </c>
       <c r="D71" s="60">
-        <v>0.54169199999999995</v>
+        <v>0.68023100000000003</v>
       </c>
       <c r="E71" s="60">
-        <v>0.17123099999999999</v>
+        <v>0.13669200000000001</v>
       </c>
       <c r="F71" s="61">
-        <v>0.65076900000000004</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.83207699999999996</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A72" s="53"/>
       <c r="B72" s="58" t="s">
         <v>131</v>
       </c>
       <c r="C72" s="59">
-        <v>4.0544330000000004</v>
+        <v>4.0286</v>
       </c>
       <c r="D72" s="60">
-        <v>0.40315200000000001</v>
+        <v>0.58432200000000001</v>
       </c>
       <c r="E72" s="60">
-        <v>0.234984</v>
+        <v>0.193187</v>
       </c>
       <c r="F72" s="61">
-        <v>0.87856999999999996</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.97405600000000003</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A73" s="53"/>
       <c r="B73" s="58" t="s">
         <v>132</v>
       </c>
       <c r="C73" s="59">
-        <v>4.0190669999999997</v>
+        <v>4.1105330000000002</v>
       </c>
       <c r="D73" s="60">
-        <v>0.50992899999999997</v>
+        <v>0.62157099999999998</v>
       </c>
       <c r="E73" s="60">
-        <v>0.118714</v>
+        <v>9.5571000000000003E-2</v>
       </c>
       <c r="F73" s="61">
-        <v>0.86842900000000001</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1.054786</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A74" s="53"/>
       <c r="B74" s="58" t="s">
         <v>133</v>
       </c>
       <c r="C74" s="59">
-        <v>4.9904000000000002</v>
+        <v>5.0213999999999999</v>
       </c>
       <c r="D74" s="60">
-        <v>0.41339999999999999</v>
+        <v>0.56599999999999995</v>
       </c>
       <c r="E74" s="60">
-        <v>8.0199999999999994E-2</v>
+        <v>6.88E-2</v>
       </c>
       <c r="F74" s="61">
-        <v>0.88439999999999996</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>1.0900000000000001</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A75" s="53"/>
       <c r="B75" s="58" t="s">
         <v>134</v>
       </c>
       <c r="C75" s="66">
-        <v>4.5054999999999996</v>
+        <v>4.4924999999999997</v>
       </c>
       <c r="D75" s="67">
-        <v>0.72799999999999998</v>
+        <v>0.81299999999999994</v>
       </c>
       <c r="E75" s="67">
-        <v>0.158</v>
+        <v>0.127</v>
       </c>
       <c r="F75" s="68">
-        <v>0.88300000000000001</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1.131</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A76" s="53"/>
       <c r="B76" s="69" t="s">
         <v>135</v>
       </c>
       <c r="C76" s="70">
-        <v>5.5518890000000001</v>
+        <v>5.6423329999999998</v>
       </c>
       <c r="D76" s="71">
-        <v>0.76500000000000001</v>
+        <v>0.90477799999999997</v>
       </c>
       <c r="E76" s="71">
-        <v>0.223333</v>
+        <v>0.17888899999999999</v>
       </c>
       <c r="F76" s="72">
-        <v>1.1445559999999999</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1.3433330000000001</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A77" s="53"/>
       <c r="B77" s="58" t="s">
         <v>136</v>
       </c>
       <c r="C77" s="59">
-        <v>6.0572499999999998</v>
+        <v>6.1856669999999996</v>
       </c>
       <c r="D77" s="60">
-        <v>0.67290899999999998</v>
+        <v>0.80554499999999996</v>
       </c>
       <c r="E77" s="60">
-        <v>0.105727</v>
+        <v>7.3999999999999996E-2</v>
       </c>
       <c r="F77" s="61">
-        <v>1.302</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1.5120910000000001</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A78" s="53"/>
       <c r="B78" s="58" t="s">
         <v>137</v>
       </c>
       <c r="C78" s="59">
-        <v>6.5879260000000004</v>
+        <v>6.5825560000000003</v>
       </c>
       <c r="D78" s="60">
-        <v>0.67411100000000002</v>
+        <v>0.79700000000000004</v>
       </c>
       <c r="E78" s="60">
-        <v>0.13570399999999999</v>
+        <v>0.104</v>
       </c>
       <c r="F78" s="61">
-        <v>1.4279630000000001</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>1.6369260000000001</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A79" s="53"/>
       <c r="B79" s="62" t="s">
         <v>138</v>
       </c>
       <c r="C79" s="63">
-        <v>6.685079</v>
+        <v>6.702</v>
       </c>
       <c r="D79" s="64">
-        <v>0.68228900000000003</v>
+        <v>0.80781599999999998</v>
       </c>
       <c r="E79" s="64">
-        <v>0.14952599999999999</v>
+        <v>0.114158</v>
       </c>
       <c r="F79" s="65">
-        <v>1.4187369999999999</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1.632158</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A80" s="53"/>
       <c r="B80" s="69" t="s">
         <v>139</v>
       </c>
       <c r="C80" s="70">
-        <v>4.6430749999999996</v>
+        <v>4.6348250000000002</v>
       </c>
       <c r="D80" s="71">
-        <v>0.38537300000000002</v>
+        <v>0.50280100000000005</v>
       </c>
       <c r="E80" s="71">
-        <v>0.133134</v>
+        <v>0.112848</v>
       </c>
       <c r="F80" s="72">
-        <v>0.85918300000000003</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1.009468</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A81" s="53"/>
       <c r="B81" s="58" t="s">
         <v>140</v>
       </c>
       <c r="C81" s="59">
-        <v>5.7936059999999996</v>
+        <v>5.8283680000000002</v>
       </c>
       <c r="D81" s="60">
-        <v>0.62149600000000005</v>
+        <v>0.75411799999999996</v>
       </c>
       <c r="E81" s="60">
-        <v>0.17858499999999999</v>
+        <v>0.13911799999999999</v>
       </c>
       <c r="F81" s="61">
-        <v>1.2723949999999999</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1.443765</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A82" s="53"/>
       <c r="B82" s="58" t="s">
         <v>141</v>
       </c>
       <c r="C82" s="59">
-        <v>4.2245100000000004</v>
+        <v>4.2448689999999996</v>
       </c>
       <c r="D82" s="60">
-        <v>0.50907599999999997</v>
+        <v>0.631521</v>
       </c>
       <c r="E82" s="60">
-        <v>0.14723</v>
+        <v>0.122724</v>
       </c>
       <c r="F82" s="61">
-        <v>0.73113499999999998</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>0.89515800000000001</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A83" s="53"/>
       <c r="B83" s="62" t="s">
         <v>142</v>
       </c>
       <c r="C83" s="63">
-        <v>5.9382419999999998</v>
+        <v>5.9954840000000003</v>
       </c>
       <c r="D83" s="64">
-        <v>0.66519300000000003</v>
+        <v>0.78435999999999995</v>
       </c>
       <c r="E83" s="64">
-        <v>0.14906800000000001</v>
+        <v>0.115416</v>
       </c>
       <c r="F83" s="65">
-        <v>1.2489889999999999</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1.4482250000000001</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A84" s="53"/>
       <c r="B84" s="69" t="s">
         <v>143</v>
       </c>
       <c r="C84" s="70">
-        <v>4.0365529999999996</v>
+        <v>4.010974</v>
       </c>
       <c r="D84" s="71">
-        <v>0.46520099999999998</v>
+        <v>0.58074599999999998</v>
       </c>
       <c r="E84" s="71">
-        <v>0.183556</v>
+        <v>0.159192</v>
       </c>
       <c r="F84" s="72">
-        <v>0.59084000000000003</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.73123800000000005</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A85" s="53"/>
       <c r="B85" s="73" t="s">
         <v>144</v>
       </c>
       <c r="C85" s="59">
-        <v>2.9146670000000001</v>
+        <v>2.7956669999999999</v>
       </c>
       <c r="D85" s="60">
-        <v>0.18099999999999999</v>
+        <v>0.2235</v>
       </c>
       <c r="E85" s="60">
-        <v>8.5500000000000007E-2</v>
+        <v>7.0499999999999993E-2</v>
       </c>
       <c r="F85" s="61">
-        <v>0.64049999999999996</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.74099999999999999</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A86" s="53"/>
       <c r="B86" s="58" t="s">
         <v>145</v>
       </c>
       <c r="C86" s="59">
-        <v>4.3041900000000002</v>
+        <v>4.3584759999999996</v>
       </c>
       <c r="D86" s="60">
-        <v>0.50419999999999998</v>
+        <v>0.62465000000000004</v>
       </c>
       <c r="E86" s="60">
-        <v>0.12634999999999999</v>
+        <v>0.10095</v>
       </c>
       <c r="F86" s="61">
-        <v>0.75409999999999999</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.94205000000000005</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A87" s="53"/>
       <c r="B87" s="58" t="s">
         <v>146</v>
       </c>
       <c r="C87" s="59">
-        <v>4.9196999999999997</v>
+        <v>5.0225499999999998</v>
       </c>
       <c r="D87" s="60">
-        <v>0.66426300000000005</v>
+        <v>0.77147399999999999</v>
       </c>
       <c r="E87" s="60">
-        <v>0.17489499999999999</v>
+        <v>0.14315800000000001</v>
       </c>
       <c r="F87" s="61">
-        <v>0.961368</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1.156158</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A88" s="53"/>
       <c r="B88" s="58" t="s">
         <v>147</v>
       </c>
       <c r="C88" s="59">
-        <v>5.1595000000000004</v>
+        <v>5.165667</v>
       </c>
       <c r="D88" s="60">
-        <v>0.51666699999999999</v>
+        <v>0.67183300000000001</v>
       </c>
       <c r="E88" s="60">
-        <v>7.6999999999999999E-2</v>
+        <v>6.4500000000000002E-2</v>
       </c>
       <c r="F88" s="61">
-        <v>1.170833</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1.3380000000000001</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A89" s="53"/>
       <c r="B89" s="58" t="s">
         <v>148</v>
       </c>
       <c r="C89" s="59">
-        <v>5.738429</v>
+        <v>5.8588290000000001</v>
       </c>
       <c r="D89" s="60">
-        <v>0.63757600000000003</v>
+        <v>0.75926499999999997</v>
       </c>
       <c r="E89" s="60">
-        <v>0.147727</v>
+        <v>0.111706</v>
       </c>
       <c r="F89" s="61">
-        <v>1.2192419999999999</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>1.4138820000000001</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A90" s="53"/>
       <c r="B90" s="62" t="s">
         <v>149</v>
       </c>
       <c r="C90" s="63">
-        <v>6.6214979999999999</v>
+        <v>6.6029020000000003</v>
       </c>
       <c r="D90" s="64">
-        <v>0.69265200000000005</v>
+        <v>0.82011999999999996</v>
       </c>
       <c r="E90" s="64">
-        <v>0.151313</v>
+        <v>0.11648</v>
       </c>
       <c r="F90" s="65">
-        <v>1.4115580000000001</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1.6084400000000001</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A91" s="53"/>
       <c r="B91" s="69" t="s">
         <v>150</v>
       </c>
       <c r="C91" s="70">
-        <v>4.043431</v>
+        <v>4.0623620000000003</v>
       </c>
       <c r="D91" s="71">
-        <v>0.48147800000000002</v>
+        <v>0.598719</v>
       </c>
       <c r="E91" s="71">
-        <v>0.17563300000000001</v>
+        <v>0.148313</v>
       </c>
       <c r="F91" s="72">
-        <v>0.60997199999999996</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.76597300000000001</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A92" s="53"/>
       <c r="B92" s="58" t="s">
         <v>151</v>
       </c>
       <c r="C92" s="59">
-        <v>3.9718749999999998</v>
+        <v>3.9581249999999999</v>
       </c>
       <c r="D92" s="60">
-        <v>0.51949999999999996</v>
+        <v>0.60762499999999997</v>
       </c>
       <c r="E92" s="60">
-        <v>0.2155</v>
+        <v>0.18425</v>
       </c>
       <c r="F92" s="61">
-        <v>0.69325000000000003</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.81499999999999995</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A93" s="53"/>
       <c r="B93" s="58" t="s">
         <v>152</v>
       </c>
       <c r="C93" s="59">
-        <v>4.6909999999999998</v>
+        <v>4.7930000000000001</v>
       </c>
       <c r="D93" s="60">
-        <v>0.40649999999999997</v>
+        <v>0.51049999999999995</v>
       </c>
       <c r="E93" s="60">
-        <v>0.1255</v>
+        <v>0.106</v>
       </c>
       <c r="F93" s="61">
-        <v>0.84299999999999997</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1.0109999999999999</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A94" s="53"/>
       <c r="B94" s="58" t="s">
         <v>153</v>
       </c>
       <c r="C94" s="59">
-        <v>5.6772369999999999</v>
+        <v>5.7473749999999999</v>
       </c>
       <c r="D94" s="60">
-        <v>0.58415499999999998</v>
+        <v>0.74299999999999999</v>
       </c>
       <c r="E94" s="60">
-        <v>0.20155999999999999</v>
+        <v>0.164571</v>
       </c>
       <c r="F94" s="61">
-        <v>1.0920540000000001</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1.2671429999999999</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A95" s="53"/>
       <c r="B95" s="58" t="s">
         <v>154</v>
       </c>
       <c r="C95" s="59">
-        <v>3.7319059999999999</v>
+        <v>3.8167810000000002</v>
       </c>
       <c r="D95" s="60">
-        <v>0.472464</v>
+        <v>0.57002600000000003</v>
       </c>
       <c r="E95" s="60">
-        <v>0.155028</v>
+        <v>0.13327800000000001</v>
       </c>
       <c r="F95" s="61">
-        <v>0.65520500000000004</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>0.77920500000000004</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A96" s="53"/>
       <c r="B96" s="62" t="s">
         <v>155</v>
       </c>
       <c r="C96" s="63">
-        <v>5.3088749999999996</v>
+        <v>5.3710000000000004</v>
       </c>
       <c r="D96" s="64">
-        <v>0.64666699999999999</v>
+        <v>0.74460000000000004</v>
       </c>
       <c r="E96" s="64">
-        <v>0.161</v>
+        <v>0.125667</v>
       </c>
       <c r="F96" s="65">
-        <v>1.1608670000000001</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1.3440000000000001</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A97" s="53"/>
       <c r="B97" s="69" t="s">
         <v>156</v>
       </c>
       <c r="C97" s="70">
-        <v>4.2019570000000002</v>
+        <v>4.2103570000000001</v>
       </c>
       <c r="D97" s="71">
-        <v>0.48051300000000002</v>
+        <v>0.59852799999999995</v>
       </c>
       <c r="E97" s="71">
-        <v>0.168264</v>
+        <v>0.14125599999999999</v>
       </c>
       <c r="F97" s="72">
-        <v>0.68963399999999997</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>0.84319</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A98" s="53"/>
       <c r="B98" s="62" t="s">
         <v>157</v>
       </c>
       <c r="C98" s="63">
-        <v>4.497941</v>
+        <v>4.5353529999999997</v>
       </c>
       <c r="D98" s="64">
-        <v>0.51893800000000001</v>
+        <v>0.60050000000000003</v>
       </c>
       <c r="E98" s="64">
-        <v>0.18443799999999999</v>
+        <v>0.159938</v>
       </c>
       <c r="F98" s="65">
-        <v>0.88656199999999996</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1.0538749999999999</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A99" s="74"/>
       <c r="B99" s="75"/>
       <c r="C99" s="67"/>
@@ -3322,7 +3320,7 @@
       <c r="E99" s="67"/>
       <c r="F99" s="67"/>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A100" s="1" t="s">
         <v>158</v>
       </c>
@@ -3331,7 +3329,7 @@
       <c r="E100" s="76"/>
       <c r="F100" s="76"/>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A101" s="1" t="s">
         <v>159</v>
       </c>
@@ -3340,7 +3338,7 @@
       <c r="E101" s="76"/>
       <c r="F101" s="76"/>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A102" s="1" t="s">
         <v>160</v>
       </c>
@@ -3349,7 +3347,7 @@
       <c r="E102" s="76"/>
       <c r="F102" s="76"/>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A103" s="1" t="s">
         <v>161</v>
       </c>
@@ -3358,7 +3356,7 @@
       <c r="E103" s="76"/>
       <c r="F103" s="76"/>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A104" s="1" t="s">
         <v>162</v>
       </c>
@@ -3367,20 +3365,20 @@
       <c r="E104" s="76"/>
       <c r="F104" s="76"/>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C105" s="76"/>
       <c r="D105" s="76"/>
       <c r="E105" s="76"/>
       <c r="F105" s="76"/>
     </row>
-    <row r="106" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B106" s="77"/>
       <c r="C106" s="76"/>
       <c r="D106" s="76"/>
       <c r="E106" s="76"/>
       <c r="F106" s="76"/>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B107" s="78" t="s">
         <v>163</v>
       </c>
@@ -3389,14 +3387,14 @@
       <c r="E107" s="76"/>
       <c r="F107" s="76"/>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B108" s="2"/>
       <c r="C108" s="76"/>
       <c r="D108" s="76"/>
       <c r="E108" s="76"/>
       <c r="F108" s="76"/>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B109" s="81" t="s">
         <v>165</v>
       </c>
@@ -3405,7 +3403,7 @@
       <c r="E109" s="76"/>
       <c r="F109" s="76"/>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B110" s="81" t="s">
         <v>166</v>
       </c>
@@ -3414,7 +3412,7 @@
       <c r="E110" s="76"/>
       <c r="F110" s="76"/>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B111" s="81" t="s">
         <v>167</v>
       </c>
@@ -3423,7 +3421,7 @@
       <c r="E111" s="76"/>
       <c r="F111" s="76"/>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B112" s="2" t="s">
         <v>164</v>
       </c>
@@ -3432,7 +3430,7 @@
       <c r="E112" s="76"/>
       <c r="F112" s="76"/>
     </row>
-    <row r="113" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B113" s="79"/>
       <c r="C113" s="76"/>
       <c r="D113" s="76"/>
@@ -3441,12 +3439,12 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B113" r:id="rId1" display="To download the entire dataset as a flat file in compressed CSV form, click here." xr:uid="{72E795CB-F77A-4597-AE7E-8E3D1FAB8404}"/>
-    <hyperlink ref="B109" r:id="rId2" xr:uid="{40F75BBD-2820-42A6-8A8C-5D4E3A9AF075}"/>
-    <hyperlink ref="B110" r:id="rId3" xr:uid="{6C9C6BF6-A239-4B47-B402-274A5633045D}"/>
-    <hyperlink ref="B107" r:id="rId4" xr:uid="{1DB795BB-56A1-4087-BAE8-C25821742D9D}"/>
-    <hyperlink ref="B112" r:id="rId5" display="CLICK HERE to download all data for the Africa's Development Dynamics Statistical Annex in an Excel format, including historic data back to 2000." xr:uid="{34F129F6-5B58-4B1A-861C-9A6D54E78127}"/>
-    <hyperlink ref="B111" r:id="rId6" xr:uid="{749A904A-027D-414C-9F4C-C7C945F379E0}"/>
+    <hyperlink ref="B113" r:id="rId1" display="To download the entire dataset as a flat file in compressed CSV form, click here." xr:uid="{A6C96A85-A011-4E5C-A770-00DD73B1D7AA}"/>
+    <hyperlink ref="B109" r:id="rId2" xr:uid="{13F58C38-FE6B-4F33-93A1-039151357BDD}"/>
+    <hyperlink ref="B110" r:id="rId3" xr:uid="{54EC5098-BB6F-4596-82D1-007B48E4A588}"/>
+    <hyperlink ref="B107" r:id="rId4" xr:uid="{6419D889-2F6B-478F-9D31-8C13C95FDCFE}"/>
+    <hyperlink ref="B112" r:id="rId5" display="CLICK HERE to download all data for the Africa's Development Dynamics Statistical Annex in an Excel format, including historic data back to 2000." xr:uid="{A40904D4-FB9E-44E7-B11A-EF1123899309}"/>
+    <hyperlink ref="B111" r:id="rId6" xr:uid="{6882C5D2-0EDF-44FB-B3F8-515E6D3F4C56}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="50" fitToWidth="0" orientation="portrait" r:id="rId7"/>

--- a/AfDD_2025_Annex_Table_Tab26.xlsx
+++ b/AfDD_2025_Annex_Table_Tab26.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main.oecd.org\ASgenDEV\AFRICASTATS\Statistical Annex (Final written files are in S)\Output tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8B2D5D9D-7F75-4A74-8F7C-B9BCF3AAC872}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7435E3AB-912C-482B-92AA-5894A09613C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-6075" windowWidth="29040" windowHeight="15720" xr2:uid="{AFF561B6-F117-47CF-8B2A-D61C79FB1E5E}"/>
+    <workbookView xWindow="28680" yWindow="-6075" windowWidth="29040" windowHeight="15720" xr2:uid="{359374FC-D722-43DA-9D78-DEDD133F46B8}"/>
   </bookViews>
   <sheets>
     <sheet name="Tab26" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Tab26'!$A$2:$F$98</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'Tab26'!$A$1:$D$98</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Tab26'!$A$2:$H$98</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Tab26'!$A$1:$F$98</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="170">
   <si>
     <t>Table 26: Subjective well-being</t>
   </si>
@@ -51,6 +51,12 @@
     <t>Cantril life ladder, most recent measure 2015-24</t>
   </si>
   <si>
+    <t>Negative affect, most recent measure 2015-24</t>
+  </si>
+  <si>
+    <t>Positive affect, most recent measure 2015-24</t>
+  </si>
+  <si>
     <t>Freedom to make life choices, most recent measure 2015-24</t>
   </si>
   <si>
@@ -522,7 +528,7 @@
     <t>ROW = "Rest of world"; LAC = "Latin American and Caribbean countries".</t>
   </si>
   <si>
-    <t>Regional Economic Communities: CEN-SAD = "Community of Sahel-Saharan States"; COMESA = "Common Market for Eastern and Southern Africa"; EAC = "East African Community"; ECCAS = "Economic Community of Central African States"; ECOWAS = "Economic Community of West African States"; IGAD = "Intergovernmental Authority on Development"; SADC = "Southern African Development Community"; UMA = "Arab Maghreb Union"; PALOP = "Países Africanos de Língua Oficial Portuguesa"; ASEAN = "Association of Southeast Asian Nations"; MERCOSUR = "Mercado Común del Sur". EU27 = "European Union (27 members)". OECD = "Organisation for Economic Co-operation and Development".</t>
+    <t>Regional Economic Communities: CEN-SAD = "Community of Sahel-Saharan States"; COMESA = "Common Market for Eastern and Southern Africa"; EAC = "East African Community"; ECCAS = "Economic Community of Central African States"; ECOWAS = "Economic Community of West African States"; IGAD = "Intergovernmental Authority on Development"; SADC = "Southern African Development Community"; UMA = "Arab Maghreb Union"; PALOP = "Países Africanos de Língua Oficial Portuguesa Portuguesa"; ASEAN = "Association of Southeast Asian Nations"; MERCOSUR = "Mercado Común del Sur". EU27 = "European Union (27 members)". OECD = "Organisation for Economic Co-operation and Development".</t>
   </si>
   <si>
     <t>Source: World Happiness Report Online Dataset 2025</t>
@@ -531,16 +537,16 @@
     <t>CLICK HERE to visit the website where you can find the Africa's Development Dynamics report, and where you can find links to explore these data further and look up historic values for these indicators.</t>
   </si>
   <si>
+    <t>CLICK HERE to go to the list of indicators, descriptions and details for more information about the indicators presented in this table.</t>
+  </si>
+  <si>
+    <t>CLICK HERE to go the list of countries, and country groupings used for aggregating indicators and see which countries belong to each country grouping.</t>
+  </si>
+  <si>
     <t>CLICK HERE to download all data for the Africa's Development Dynamics Statistical Annex in an Excel format, including historic data back to 2000 (in a compressed file format).</t>
   </si>
   <si>
-    <t>For more information about the indicators presented in this table, go to the List of indicators, descriptions and details, click here.</t>
-  </si>
-  <si>
-    <t>To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators, click here.</t>
-  </si>
-  <si>
-    <t>To see the full list of sources used in the Statistical Annex, click here.</t>
+    <t>CLICK HERE to go to the full list of sources used in the Statistical Annex, click here.</t>
   </si>
 </sst>
 </file>
@@ -551,7 +557,7 @@
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
   </numFmts>
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -683,16 +689,6 @@
       <u/>
       <sz val="12"/>
       <color rgb="FFD42C2D"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <i/>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FFA54917"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -919,7 +915,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="82">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1147,7 +1143,6 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyBorder="1"/>
   </cellXfs>
@@ -1431,11 +1426,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{092E48D5-E199-40D3-A23D-9DA4EF5B1AC7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BF3F327-3F1D-44DC-94A3-FF9B9FA57F5F}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F113"/>
+  <dimension ref="A1:H114"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
@@ -1443,11 +1438,11 @@
   <cols>
     <col min="1" max="1" width="5.453125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="33.1796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="6" width="14.453125" style="80" customWidth="1"/>
-    <col min="7" max="24" width="14.453125" customWidth="1"/>
+    <col min="3" max="8" width="14.453125" style="79" customWidth="1"/>
+    <col min="9" max="26" width="14.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
         <v>0</v>
@@ -1455,8 +1450,10 @@
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
       <c r="F1" s="3"/>
-    </row>
-    <row r="2" spans="1:6" ht="32" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+    </row>
+    <row r="2" spans="1:8" ht="32" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -1472,1982 +1469,2602 @@
       <c r="E2" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="F2" s="7" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G2" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" s="9" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C3" s="11">
         <v>3.7949999999999999</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E3" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" s="13" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+        <v>11</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="H3" s="13" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" s="9" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C4" s="15">
         <v>3.4380000000000002</v>
       </c>
-      <c r="D4" s="16">
+      <c r="D4" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="16">
         <v>0.69699999999999995</v>
       </c>
-      <c r="E4" s="16">
+      <c r="G4" s="16">
         <v>1.7999999999999999E-2</v>
       </c>
-      <c r="F4" s="17">
+      <c r="H4" s="17">
         <v>1.1459999999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" s="9" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C5" s="15">
         <v>3.774</v>
       </c>
-      <c r="D5" s="19">
+      <c r="D5" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="19">
         <v>0.42799999999999999</v>
       </c>
-      <c r="E5" s="19">
+      <c r="G5" s="19">
         <v>5.3999999999999999E-2</v>
       </c>
-      <c r="F5" s="20">
+      <c r="H5" s="20">
         <v>1.1519999999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" s="9" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C6" s="15">
         <v>3.7570000000000001</v>
       </c>
-      <c r="D6" s="19">
+      <c r="D6" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" s="19">
         <v>0.60599999999999998</v>
       </c>
-      <c r="E6" s="19">
+      <c r="G6" s="19">
         <v>6.5000000000000002E-2</v>
       </c>
-      <c r="F6" s="20">
+      <c r="H6" s="20">
         <v>1.131</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" s="9" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B7" s="18" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C7" s="15">
         <v>3.26</v>
       </c>
-      <c r="D7" s="19">
+      <c r="D7" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" s="19">
         <v>0.67700000000000005</v>
       </c>
-      <c r="E7" s="19">
+      <c r="G7" s="19">
         <v>0.115</v>
       </c>
-      <c r="F7" s="20">
+      <c r="H7" s="20">
         <v>0.48899999999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" s="9" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B8" s="18" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C8" s="15">
         <v>5.19</v>
       </c>
-      <c r="D8" s="19">
+      <c r="D8" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" s="19">
         <v>0.81299999999999994</v>
       </c>
-      <c r="E8" s="19">
+      <c r="G8" s="19">
         <v>0.127</v>
       </c>
-      <c r="F8" s="20">
+      <c r="H8" s="20">
         <v>1.131</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" s="9" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B9" s="18" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C9" s="21">
         <v>4.9109999999999996</v>
       </c>
-      <c r="D9" s="19">
+      <c r="D9" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="F9" s="19">
         <v>0.56399999999999995</v>
       </c>
-      <c r="E9" s="19">
+      <c r="G9" s="19">
         <v>5.1999999999999998E-2</v>
       </c>
-      <c r="F9" s="20">
+      <c r="H9" s="20">
         <v>1.482</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" s="9" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B10" s="18" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C10" s="21">
         <v>5.2130000000000001</v>
       </c>
-      <c r="D10" s="19">
+      <c r="D10" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" s="19">
         <v>0.67600000000000005</v>
       </c>
-      <c r="E10" s="19">
+      <c r="G10" s="19">
         <v>6.4000000000000001E-2</v>
       </c>
-      <c r="F10" s="20">
+      <c r="H10" s="20">
         <v>1.4650000000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11" s="9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B11" s="18" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C11" s="15">
         <v>3.9119999999999999</v>
       </c>
-      <c r="D11" s="16">
+      <c r="D11" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="F11" s="16">
         <v>0.872</v>
       </c>
-      <c r="E11" s="16">
+      <c r="G11" s="16">
         <v>0.13100000000000001</v>
       </c>
-      <c r="F11" s="17">
+      <c r="H11" s="17">
         <v>1.0129999999999999</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A12" s="9" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B12" s="22" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C12" s="23">
         <v>3.3959999999999999</v>
       </c>
-      <c r="D12" s="24">
+      <c r="D12" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="F12" s="24">
         <v>0.59799999999999998</v>
       </c>
-      <c r="E12" s="24">
+      <c r="G12" s="24">
         <v>6.5000000000000002E-2</v>
       </c>
-      <c r="F12" s="25">
+      <c r="H12" s="25">
         <v>0.96099999999999997</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A13" s="26"/>
       <c r="B13" s="27" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C13" s="28">
         <v>4.0646000000000004</v>
       </c>
-      <c r="D13" s="29">
+      <c r="D13" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="F13" s="29">
         <v>0.65900000000000003</v>
       </c>
-      <c r="E13" s="29">
+      <c r="G13" s="29">
         <v>7.6777999999999999E-2</v>
       </c>
-      <c r="F13" s="30">
+      <c r="H13" s="30">
         <v>1.1077779999999999</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14" s="9" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B14" s="18" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C14" s="21">
         <v>3.7749999999999999</v>
       </c>
-      <c r="D14" s="19">
+      <c r="D14" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="F14" s="19">
         <v>0.29799999999999999</v>
       </c>
-      <c r="E14" s="19">
+      <c r="G14" s="19">
         <v>0.17199999999999999</v>
       </c>
-      <c r="F14" s="20">
+      <c r="H14" s="20">
         <v>6.2E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15" s="9" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B15" s="18" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C15" s="21">
         <v>4.8869999999999996</v>
       </c>
-      <c r="D15" s="19">
+      <c r="D15" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="E15" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="F15" s="19">
         <v>0.66200000000000003</v>
       </c>
-      <c r="E15" s="19">
+      <c r="G15" s="19">
         <v>9.9000000000000005E-2</v>
       </c>
-      <c r="F15" s="20">
+      <c r="H15" s="20">
         <v>0.98599999999999999</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A16" s="9" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B16" s="18" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C16" s="21">
         <v>3.4759000000000002</v>
       </c>
-      <c r="D16" s="19">
+      <c r="D16" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="E16" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="F16" s="19">
         <v>0.29281400000000002</v>
       </c>
-      <c r="E16" s="19">
+      <c r="G16" s="19">
         <v>0.25351299999999999</v>
       </c>
-      <c r="F16" s="20">
+      <c r="H16" s="20">
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A17" s="9" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B17" s="31" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C17" s="32">
         <v>4.3840000000000003</v>
       </c>
-      <c r="D17" s="33">
+      <c r="D17" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="E17" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="F17" s="33">
         <v>0.47699999999999998</v>
       </c>
-      <c r="E17" s="33">
+      <c r="G17" s="33">
         <v>0.17499999999999999</v>
       </c>
-      <c r="F17" s="34">
+      <c r="H17" s="34">
         <v>0.90200000000000002</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A18" s="9" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B18" s="31" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C18" s="32">
         <v>5.03</v>
       </c>
-      <c r="D18" s="33">
+      <c r="D18" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="E18" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="F18" s="33">
         <v>0.626</v>
       </c>
-      <c r="E18" s="33">
+      <c r="G18" s="33">
         <v>8.2000000000000003E-2</v>
       </c>
-      <c r="F18" s="34">
+      <c r="H18" s="34">
         <v>0.79600000000000004</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A19" s="9" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B19" s="18" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C19" s="15">
         <v>3.4689999999999999</v>
       </c>
-      <c r="D19" s="16">
+      <c r="D19" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="E19" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="F19" s="16">
         <v>0.6</v>
       </c>
-      <c r="E19" s="16">
+      <c r="G19" s="16">
         <v>0.151</v>
       </c>
-      <c r="F19" s="17">
+      <c r="H19" s="17">
         <v>0.92900000000000005</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A20" s="9" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B20" s="31" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C20" s="32" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D20" s="33" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E20" s="33" t="s">
-        <v>9</v>
-      </c>
-      <c r="F20" s="34" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+        <v>11</v>
+      </c>
+      <c r="F20" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="G20" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="H20" s="34" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A21" s="9" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B21" s="31" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C21" s="32">
         <v>5.12</v>
       </c>
-      <c r="D21" s="33">
+      <c r="D21" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="E21" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="F21" s="33">
         <v>0.65100000000000002</v>
       </c>
-      <c r="E21" s="33">
+      <c r="G21" s="33">
         <v>4.2000000000000003E-2</v>
       </c>
-      <c r="F21" s="34">
+      <c r="H21" s="34">
         <v>1.224</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A22" s="9" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B22" s="35" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C22" s="36" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D22" s="37" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E22" s="37" t="s">
-        <v>9</v>
-      </c>
-      <c r="F22" s="38" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>11</v>
+      </c>
+      <c r="F22" s="37" t="s">
+        <v>11</v>
+      </c>
+      <c r="G22" s="37" t="s">
+        <v>11</v>
+      </c>
+      <c r="H22" s="38" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A23" s="26"/>
       <c r="B23" s="27" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C23" s="28">
         <v>4.3058430000000003</v>
       </c>
-      <c r="D23" s="29">
+      <c r="D23" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="E23" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="F23" s="29">
         <v>0.51525900000000002</v>
       </c>
-      <c r="E23" s="29">
+      <c r="G23" s="29">
         <v>0.13921600000000001</v>
       </c>
-      <c r="F23" s="30">
+      <c r="H23" s="30">
         <v>0.69985699999999995</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A24" s="9" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B24" s="39" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C24" s="40">
         <v>3.754</v>
       </c>
-      <c r="D24" s="41">
+      <c r="D24" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="E24" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="F24" s="41">
         <v>0.26</v>
       </c>
-      <c r="E24" s="41">
+      <c r="G24" s="41">
         <v>0.11700000000000001</v>
       </c>
-      <c r="F24" s="42">
+      <c r="H24" s="42">
         <v>0.501</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A25" s="9" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B25" s="18" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C25" s="21" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D25" s="19" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E25" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="F25" s="20" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+        <v>11</v>
+      </c>
+      <c r="F25" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="G25" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="H25" s="20" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A26" s="9" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B26" s="18" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C26" s="21" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D26" s="19" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E26" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="F26" s="20" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+        <v>11</v>
+      </c>
+      <c r="F26" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="G26" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="H26" s="20" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A27" s="9" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B27" s="18" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C27" s="21">
         <v>3.8980000000000001</v>
       </c>
-      <c r="D27" s="19">
+      <c r="D27" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="E27" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="F27" s="19">
         <v>0.54</v>
       </c>
-      <c r="E27" s="19">
+      <c r="G27" s="19">
         <v>0.182</v>
       </c>
-      <c r="F27" s="20">
+      <c r="H27" s="20">
         <v>1.0509999999999999</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A28" s="9" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B28" s="18" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C28" s="21">
         <v>4.51</v>
       </c>
-      <c r="D28" s="19">
+      <c r="D28" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="E28" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="F28" s="19">
         <v>0.64900000000000002</v>
       </c>
-      <c r="E28" s="19">
+      <c r="G28" s="19">
         <v>0.22</v>
       </c>
-      <c r="F28" s="20">
+      <c r="H28" s="20">
         <v>1.0469999999999999</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A29" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B29" s="18" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C29" s="21">
         <v>4.157</v>
       </c>
-      <c r="D29" s="19">
+      <c r="D29" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="E29" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="F29" s="19">
         <v>0.29199999999999998</v>
       </c>
-      <c r="E29" s="19">
+      <c r="G29" s="19">
         <v>0.13100000000000001</v>
       </c>
-      <c r="F29" s="20">
+      <c r="H29" s="20">
         <v>0.93799999999999994</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A30" s="9" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B30" s="18" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C30" s="21">
         <v>5.8319999999999999</v>
       </c>
-      <c r="D30" s="19">
+      <c r="D30" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="E30" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="F30" s="19">
         <v>0.76100000000000001</v>
       </c>
-      <c r="E30" s="19">
+      <c r="G30" s="19">
         <v>9.5000000000000001E-2</v>
       </c>
-      <c r="F30" s="20">
+      <c r="H30" s="20">
         <v>1.5209999999999999</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A31" s="9" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B31" s="18" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C31" s="21">
         <v>3.2679999999999998</v>
       </c>
-      <c r="D31" s="19">
+      <c r="D31" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="E31" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="F31" s="19">
         <v>0.621</v>
       </c>
-      <c r="E31" s="19">
+      <c r="G31" s="19">
         <v>0.187</v>
       </c>
-      <c r="F31" s="20">
+      <c r="H31" s="20">
         <v>0.13300000000000001</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A32" s="9" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B32" s="18" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C32" s="21" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D32" s="19" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E32" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="F32" s="20" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
+        <v>11</v>
+      </c>
+      <c r="F32" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="G32" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="H32" s="20" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A33" s="9" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B33" s="18" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C33" s="21">
         <v>4.3470000000000004</v>
       </c>
-      <c r="D33" s="19">
+      <c r="D33" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="E33" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="F33" s="19">
         <v>0.91600000000000004</v>
       </c>
-      <c r="E33" s="19">
+      <c r="G33" s="19">
         <v>0.20599999999999999</v>
       </c>
-      <c r="F33" s="20">
+      <c r="H33" s="20">
         <v>0.877</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A34" s="9" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B34" s="31" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C34" s="32">
         <v>2.8166000000000002</v>
       </c>
-      <c r="D34" s="33">
+      <c r="D34" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="E34" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="F34" s="33">
         <v>6.5609000000000001E-2</v>
       </c>
-      <c r="E34" s="33">
+      <c r="G34" s="33">
         <v>0.20993500000000001</v>
       </c>
-      <c r="F34" s="34">
+      <c r="H34" s="34">
         <v>0.55327899999999997</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A35" s="9" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B35" s="18" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C35" s="21">
         <v>4.1390000000000002</v>
       </c>
       <c r="D35" s="19" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E35" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="F35" s="20" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
+        <v>11</v>
+      </c>
+      <c r="F35" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="G35" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="H35" s="20" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A36" s="9" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B36" s="18" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C36" s="21">
         <v>3.8</v>
       </c>
-      <c r="D36" s="19">
+      <c r="D36" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="E36" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="F36" s="19">
         <v>0.85799999999999998</v>
       </c>
-      <c r="E36" s="19">
+      <c r="G36" s="19">
         <v>0.153</v>
       </c>
-      <c r="F36" s="20">
+      <c r="H36" s="20">
         <v>0.90800000000000003</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A37" s="9" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B37" s="22" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C37" s="23">
         <v>4.4610000000000003</v>
       </c>
-      <c r="D37" s="24">
+      <c r="D37" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="E37" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="F37" s="24">
         <v>0.751</v>
       </c>
-      <c r="E37" s="24">
+      <c r="G37" s="24">
         <v>0.14799999999999999</v>
       </c>
-      <c r="F37" s="25">
+      <c r="H37" s="25">
         <v>1.3420000000000001</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A38" s="26"/>
       <c r="B38" s="27" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C38" s="28">
         <v>4.0893269999999999</v>
       </c>
-      <c r="D38" s="29">
+      <c r="D38" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="E38" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="F38" s="29">
         <v>0.57136100000000001</v>
       </c>
-      <c r="E38" s="29">
+      <c r="G38" s="29">
         <v>0.16489300000000001</v>
       </c>
-      <c r="F38" s="30">
+      <c r="H38" s="30">
         <v>0.88712800000000003</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A39" s="9" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B39" s="43" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C39" s="44">
         <v>5.5709999999999997</v>
       </c>
-      <c r="D39" s="45">
+      <c r="D39" s="45" t="s">
+        <v>11</v>
+      </c>
+      <c r="E39" s="45" t="s">
+        <v>11</v>
+      </c>
+      <c r="F39" s="45">
         <v>0.52200000000000002</v>
       </c>
-      <c r="E39" s="45">
+      <c r="G39" s="45">
         <v>5.7000000000000002E-2</v>
       </c>
-      <c r="F39" s="46">
+      <c r="H39" s="46">
         <v>1.363</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A40" s="9" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B40" s="18" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C40" s="21">
         <v>3.8170000000000002</v>
       </c>
-      <c r="D40" s="19">
+      <c r="D40" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="E40" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="F40" s="19">
         <v>0.59299999999999997</v>
       </c>
-      <c r="E40" s="19">
+      <c r="G40" s="19">
         <v>1.7999999999999999E-2</v>
       </c>
-      <c r="F40" s="20">
+      <c r="H40" s="20">
         <v>1.075</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A41" s="9" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B41" s="47" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C41" s="32">
         <v>5.82</v>
       </c>
-      <c r="D41" s="33">
+      <c r="D41" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="E41" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="F41" s="33">
         <v>0.72399999999999998</v>
       </c>
-      <c r="E41" s="33">
+      <c r="G41" s="33">
         <v>0.111</v>
       </c>
-      <c r="F41" s="34">
+      <c r="H41" s="34">
         <v>1.3089999999999999</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A42" s="9" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B42" s="47" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C42" s="32">
         <v>4.5419999999999998</v>
       </c>
-      <c r="D42" s="33">
+      <c r="D42" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="E42" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="F42" s="33">
         <v>0.45400000000000001</v>
       </c>
-      <c r="E42" s="33">
+      <c r="G42" s="33">
         <v>0.113</v>
       </c>
-      <c r="F42" s="34">
+      <c r="H42" s="34">
         <v>0.91900000000000004</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A43" s="9" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B43" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C43" s="21">
         <v>4.6219999999999999</v>
       </c>
-      <c r="D43" s="19">
+      <c r="D43" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="E43" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="F43" s="19">
         <v>0.748</v>
       </c>
-      <c r="E43" s="19">
+      <c r="G43" s="19">
         <v>3.1E-2</v>
       </c>
-      <c r="F43" s="20">
+      <c r="H43" s="20">
         <v>0.63500000000000001</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A44" s="9" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B44" s="35" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C44" s="36">
         <v>4.5519999999999996</v>
       </c>
-      <c r="D44" s="37">
+      <c r="D44" s="37" t="s">
+        <v>11</v>
+      </c>
+      <c r="E44" s="37" t="s">
+        <v>11</v>
+      </c>
+      <c r="F44" s="37">
         <v>0.38200000000000001</v>
       </c>
-      <c r="E44" s="37">
+      <c r="G44" s="37">
         <v>3.2000000000000001E-2</v>
       </c>
-      <c r="F44" s="38">
+      <c r="H44" s="38">
         <v>1.224</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A45" s="26"/>
       <c r="B45" s="27" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C45" s="28">
         <v>4.8206670000000003</v>
       </c>
-      <c r="D45" s="29">
+      <c r="D45" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="E45" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="F45" s="29">
         <v>0.57050000000000001</v>
       </c>
-      <c r="E45" s="29">
+      <c r="G45" s="29">
         <v>6.0332999999999998E-2</v>
       </c>
-      <c r="F45" s="30">
+      <c r="H45" s="30">
         <v>1.0874999999999999</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A46" s="9" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B46" s="39" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C46" s="40">
         <v>4.3570000000000002</v>
       </c>
-      <c r="D46" s="41">
+      <c r="D46" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="E46" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="F46" s="41">
         <v>0.67900000000000005</v>
       </c>
-      <c r="E46" s="41">
+      <c r="G46" s="41">
         <v>9.1999999999999998E-2</v>
       </c>
-      <c r="F46" s="42">
+      <c r="H46" s="42">
         <v>0.22800000000000001</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A47" s="9" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B47" s="18" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C47" s="21">
         <v>4.383</v>
       </c>
-      <c r="D47" s="19">
+      <c r="D47" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="E47" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="F47" s="19">
         <v>0.67100000000000004</v>
       </c>
-      <c r="E47" s="19">
+      <c r="G47" s="19">
         <v>0.14199999999999999</v>
       </c>
-      <c r="F47" s="20">
+      <c r="H47" s="20">
         <v>0.82799999999999996</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A48" s="9" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B48" s="47" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C48" s="32" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D48" s="33" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E48" s="33" t="s">
-        <v>9</v>
-      </c>
-      <c r="F48" s="34" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
+        <v>11</v>
+      </c>
+      <c r="F48" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="G48" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="H48" s="34" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A49" s="9" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B49" s="18" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C49" s="21">
         <v>5.1020000000000003</v>
       </c>
-      <c r="D49" s="19">
+      <c r="D49" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="E49" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="F49" s="19">
         <v>0.66100000000000003</v>
       </c>
-      <c r="E49" s="19">
+      <c r="G49" s="19">
         <v>0.1</v>
       </c>
-      <c r="F49" s="20">
+      <c r="H49" s="20">
         <v>0.76</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A50" s="9" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B50" s="18" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C50" s="21">
         <v>4.423</v>
       </c>
-      <c r="D50" s="19">
+      <c r="D50" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="E50" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="F50" s="19">
         <v>0.61099999999999999</v>
       </c>
-      <c r="E50" s="19">
+      <c r="G50" s="19">
         <v>0.255</v>
       </c>
-      <c r="F50" s="20">
+      <c r="H50" s="20">
         <v>0.95799999999999996</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A51" s="9" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B51" s="14" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C51" s="15">
         <v>4.34</v>
       </c>
-      <c r="D51" s="16">
+      <c r="D51" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="E51" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="F51" s="16">
         <v>0.77100000000000002</v>
       </c>
-      <c r="E51" s="16">
+      <c r="G51" s="16">
         <v>0.13900000000000001</v>
       </c>
-      <c r="F51" s="17">
+      <c r="H51" s="17">
         <v>1.01</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A52" s="9" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B52" s="18" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C52" s="21">
         <v>4.9290000000000003</v>
       </c>
-      <c r="D52" s="19">
+      <c r="D52" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="E52" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="F52" s="19">
         <v>0.67600000000000005</v>
       </c>
-      <c r="E52" s="19">
+      <c r="G52" s="19">
         <v>0.157</v>
       </c>
-      <c r="F52" s="20">
+      <c r="H52" s="20">
         <v>0.79100000000000004</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A53" s="9" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B53" s="18" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C53" s="21" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D53" s="19" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E53" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="F53" s="20" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
+        <v>11</v>
+      </c>
+      <c r="F53" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="G53" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="H53" s="20" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A54" s="9" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B54" s="18" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C54" s="21">
         <v>4.2770000000000001</v>
       </c>
-      <c r="D54" s="19">
+      <c r="D54" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="E54" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="F54" s="19">
         <v>0.65300000000000002</v>
       </c>
-      <c r="E54" s="19">
+      <c r="G54" s="19">
         <v>0.14299999999999999</v>
       </c>
-      <c r="F54" s="20">
+      <c r="H54" s="20">
         <v>0.88800000000000001</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A55" s="9" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B55" s="18" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C55" s="21">
         <v>4.3449999999999998</v>
       </c>
-      <c r="D55" s="19">
+      <c r="D55" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="E55" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="F55" s="19">
         <v>0.76700000000000002</v>
       </c>
-      <c r="E55" s="19">
+      <c r="G55" s="19">
         <v>9.2999999999999999E-2</v>
       </c>
-      <c r="F55" s="20">
+      <c r="H55" s="20">
         <v>0.90800000000000003</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A56" s="9" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B56" s="18" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C56" s="21">
         <v>4.7249999999999996</v>
       </c>
-      <c r="D56" s="19">
+      <c r="D56" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="E56" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="F56" s="19">
         <v>0.75900000000000001</v>
       </c>
-      <c r="E56" s="19">
+      <c r="G56" s="19">
         <v>0.122</v>
       </c>
-      <c r="F56" s="20">
+      <c r="H56" s="20">
         <v>0.79600000000000004</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A57" s="9" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B57" s="18" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C57" s="21">
         <v>4.8849999999999998</v>
       </c>
-      <c r="D57" s="19">
+      <c r="D57" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="E57" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="F57" s="19">
         <v>0.63900000000000001</v>
       </c>
-      <c r="E57" s="19">
+      <c r="G57" s="19">
         <v>0.17</v>
       </c>
-      <c r="F57" s="20">
+      <c r="H57" s="20">
         <v>1.2450000000000001</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A58" s="9" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B58" s="18" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C58" s="21">
         <v>4.8559999999999999</v>
       </c>
-      <c r="D58" s="19">
+      <c r="D58" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="E58" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="F58" s="19">
         <v>0.76700000000000002</v>
       </c>
-      <c r="E58" s="19">
+      <c r="G58" s="19">
         <v>0.129</v>
       </c>
-      <c r="F58" s="20">
+      <c r="H58" s="20">
         <v>0.97699999999999998</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A59" s="9" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B59" s="18" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C59" s="21">
         <v>2.9980000000000002</v>
       </c>
-      <c r="D59" s="19">
+      <c r="D59" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="E59" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="F59" s="19">
         <v>0.61299999999999999</v>
       </c>
-      <c r="E59" s="19">
+      <c r="G59" s="19">
         <v>0.13800000000000001</v>
       </c>
-      <c r="F59" s="20">
+      <c r="H59" s="20">
         <v>0.69199999999999995</v>
       </c>
     </row>
-    <row r="60" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A60" s="9" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B60" s="22" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C60" s="23">
         <v>4.3150000000000004</v>
       </c>
-      <c r="D60" s="24">
+      <c r="D60" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="E60" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="F60" s="24">
         <v>0.57599999999999996</v>
       </c>
-      <c r="E60" s="24">
+      <c r="G60" s="24">
         <v>9.7000000000000003E-2</v>
       </c>
-      <c r="F60" s="25">
+      <c r="H60" s="25">
         <v>0.73599999999999999</v>
       </c>
     </row>
-    <row r="61" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A61" s="26"/>
       <c r="B61" s="27" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C61" s="28">
         <v>4.4565380000000001</v>
       </c>
-      <c r="D61" s="29">
+      <c r="D61" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="E61" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="F61" s="29">
         <v>0.68023100000000003</v>
       </c>
-      <c r="E61" s="29">
+      <c r="G61" s="29">
         <v>0.13669200000000001</v>
       </c>
-      <c r="F61" s="30">
+      <c r="H61" s="30">
         <v>0.83207699999999996</v>
       </c>
     </row>
-    <row r="62" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A62" s="48"/>
       <c r="B62" s="49" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="C62" s="50">
         <v>4.3112450000000004</v>
       </c>
-      <c r="D62" s="51">
+      <c r="D62" s="51" t="s">
+        <v>11</v>
+      </c>
+      <c r="E62" s="51" t="s">
+        <v>11</v>
+      </c>
+      <c r="F62" s="51">
         <v>0.61149799999999999</v>
       </c>
-      <c r="E62" s="51">
+      <c r="G62" s="51">
         <v>0.121188</v>
       </c>
-      <c r="F62" s="52">
+      <c r="H62" s="52">
         <v>0.91293999999999997</v>
       </c>
     </row>
-    <row r="63" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A63" s="48"/>
       <c r="B63" s="49" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C63" s="50">
         <v>5.9666180000000004</v>
       </c>
-      <c r="D63" s="51">
+      <c r="D63" s="51" t="s">
+        <v>11</v>
+      </c>
+      <c r="E63" s="51" t="s">
+        <v>11</v>
+      </c>
+      <c r="F63" s="51">
         <v>0.77950900000000001</v>
       </c>
-      <c r="E63" s="51">
+      <c r="G63" s="51">
         <v>0.119217</v>
       </c>
-      <c r="F63" s="52">
+      <c r="H63" s="52">
         <v>1.4475089999999999</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A64" s="53"/>
       <c r="B64" s="54" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C64" s="55">
         <v>6.1554779999999996</v>
       </c>
-      <c r="D64" s="56">
+      <c r="D64" s="56" t="s">
+        <v>11</v>
+      </c>
+      <c r="E64" s="56" t="s">
+        <v>11</v>
+      </c>
+      <c r="F64" s="56">
         <v>0.82131799999999999</v>
       </c>
-      <c r="E64" s="56">
+      <c r="G64" s="56">
         <v>9.4908999999999993E-2</v>
       </c>
-      <c r="F64" s="57">
+      <c r="H64" s="57">
         <v>1.420091</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A65" s="53"/>
       <c r="B65" s="58" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="C65" s="59">
         <v>4.9053570000000004</v>
       </c>
-      <c r="D65" s="60">
+      <c r="D65" s="60" t="s">
+        <v>11</v>
+      </c>
+      <c r="E65" s="60" t="s">
+        <v>11</v>
+      </c>
+      <c r="F65" s="60">
         <v>0.71803799999999995</v>
       </c>
-      <c r="E65" s="60">
+      <c r="G65" s="60">
         <v>0.15</v>
       </c>
-      <c r="F65" s="61">
+      <c r="H65" s="61">
         <v>1.2121150000000001</v>
       </c>
     </row>
-    <row r="66" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A66" s="53"/>
       <c r="B66" s="62" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C66" s="63">
         <v>5.4710609999999997</v>
       </c>
-      <c r="D66" s="64">
+      <c r="D66" s="64" t="s">
+        <v>11</v>
+      </c>
+      <c r="E66" s="64" t="s">
+        <v>11</v>
+      </c>
+      <c r="F66" s="64">
         <v>0.72943999999999998</v>
       </c>
-      <c r="E66" s="64">
+      <c r="G66" s="64">
         <v>0.11980399999999999</v>
       </c>
-      <c r="F66" s="65">
+      <c r="H66" s="65">
         <v>1.2882009999999999</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A67" s="53"/>
       <c r="B67" s="58" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="C67" s="59">
         <v>4.1189439999999999</v>
       </c>
-      <c r="D67" s="60">
+      <c r="D67" s="60" t="s">
+        <v>11</v>
+      </c>
+      <c r="E67" s="60" t="s">
+        <v>11</v>
+      </c>
+      <c r="F67" s="60">
         <v>0.58599999999999997</v>
       </c>
-      <c r="E67" s="60">
+      <c r="G67" s="60">
         <v>0.12558800000000001</v>
       </c>
-      <c r="F67" s="61">
+      <c r="H67" s="61">
         <v>0.91905899999999996</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A68" s="53"/>
       <c r="B68" s="58" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C68" s="59">
         <v>4.4141320000000004</v>
       </c>
-      <c r="D68" s="60">
+      <c r="D68" s="60" t="s">
+        <v>11</v>
+      </c>
+      <c r="E68" s="60" t="s">
+        <v>11</v>
+      </c>
+      <c r="F68" s="60">
         <v>0.62080100000000005</v>
       </c>
-      <c r="E68" s="60">
+      <c r="G68" s="60">
         <v>0.12812000000000001</v>
       </c>
-      <c r="F68" s="61">
+      <c r="H68" s="61">
         <v>0.82718999999999998</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A69" s="53"/>
       <c r="B69" s="58" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="C69" s="59">
         <v>3.7285140000000001</v>
       </c>
-      <c r="D69" s="60">
+      <c r="D69" s="60" t="s">
+        <v>11</v>
+      </c>
+      <c r="E69" s="60" t="s">
+        <v>11</v>
+      </c>
+      <c r="F69" s="60">
         <v>0.54894399999999999</v>
       </c>
-      <c r="E69" s="60">
+      <c r="G69" s="60">
         <v>0.17727599999999999</v>
       </c>
-      <c r="F69" s="61">
+      <c r="H69" s="61">
         <v>0.71061099999999999</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A70" s="53"/>
       <c r="B70" s="58" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="C70" s="59">
         <v>4.1337669999999997</v>
       </c>
-      <c r="D70" s="60">
+      <c r="D70" s="60" t="s">
+        <v>11</v>
+      </c>
+      <c r="E70" s="60" t="s">
+        <v>11</v>
+      </c>
+      <c r="F70" s="60">
         <v>0.52847699999999997</v>
       </c>
-      <c r="E70" s="60">
+      <c r="G70" s="60">
         <v>0.14518900000000001</v>
       </c>
-      <c r="F70" s="61">
+      <c r="H70" s="61">
         <v>0.629</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A71" s="53"/>
       <c r="B71" s="58" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C71" s="59">
         <v>4.4565380000000001</v>
       </c>
-      <c r="D71" s="60">
+      <c r="D71" s="60" t="s">
+        <v>11</v>
+      </c>
+      <c r="E71" s="60" t="s">
+        <v>11</v>
+      </c>
+      <c r="F71" s="60">
         <v>0.68023100000000003</v>
       </c>
-      <c r="E71" s="60">
+      <c r="G71" s="60">
         <v>0.13669200000000001</v>
       </c>
-      <c r="F71" s="61">
+      <c r="H71" s="61">
         <v>0.83207699999999996</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A72" s="53"/>
       <c r="B72" s="58" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="C72" s="59">
         <v>4.0286</v>
       </c>
-      <c r="D72" s="60">
+      <c r="D72" s="60" t="s">
+        <v>11</v>
+      </c>
+      <c r="E72" s="60" t="s">
+        <v>11</v>
+      </c>
+      <c r="F72" s="60">
         <v>0.58432200000000001</v>
       </c>
-      <c r="E72" s="60">
+      <c r="G72" s="60">
         <v>0.193187</v>
       </c>
-      <c r="F72" s="61">
+      <c r="H72" s="61">
         <v>0.97405600000000003</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A73" s="53"/>
       <c r="B73" s="58" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="C73" s="59">
         <v>4.1105330000000002</v>
       </c>
-      <c r="D73" s="60">
+      <c r="D73" s="60" t="s">
+        <v>11</v>
+      </c>
+      <c r="E73" s="60" t="s">
+        <v>11</v>
+      </c>
+      <c r="F73" s="60">
         <v>0.62157099999999998</v>
       </c>
-      <c r="E73" s="60">
+      <c r="G73" s="60">
         <v>9.5571000000000003E-2</v>
       </c>
-      <c r="F73" s="61">
+      <c r="H73" s="61">
         <v>1.054786</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A74" s="53"/>
       <c r="B74" s="58" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="C74" s="59">
         <v>5.0213999999999999</v>
       </c>
-      <c r="D74" s="60">
+      <c r="D74" s="60" t="s">
+        <v>11</v>
+      </c>
+      <c r="E74" s="60" t="s">
+        <v>11</v>
+      </c>
+      <c r="F74" s="60">
         <v>0.56599999999999995</v>
       </c>
-      <c r="E74" s="60">
+      <c r="G74" s="60">
         <v>6.88E-2</v>
       </c>
-      <c r="F74" s="61">
+      <c r="H74" s="61">
         <v>1.0900000000000001</v>
       </c>
     </row>
-    <row r="75" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A75" s="53"/>
       <c r="B75" s="58" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="C75" s="66">
         <v>4.4924999999999997</v>
       </c>
-      <c r="D75" s="67">
+      <c r="D75" s="67" t="s">
+        <v>11</v>
+      </c>
+      <c r="E75" s="67" t="s">
+        <v>11</v>
+      </c>
+      <c r="F75" s="67">
         <v>0.81299999999999994</v>
       </c>
-      <c r="E75" s="67">
+      <c r="G75" s="67">
         <v>0.127</v>
       </c>
-      <c r="F75" s="68">
+      <c r="H75" s="68">
         <v>1.131</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A76" s="53"/>
       <c r="B76" s="69" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="C76" s="70">
         <v>5.6423329999999998</v>
       </c>
-      <c r="D76" s="71">
+      <c r="D76" s="71" t="s">
+        <v>11</v>
+      </c>
+      <c r="E76" s="71" t="s">
+        <v>11</v>
+      </c>
+      <c r="F76" s="71">
         <v>0.90477799999999997</v>
       </c>
-      <c r="E76" s="71">
+      <c r="G76" s="71">
         <v>0.17888899999999999</v>
       </c>
-      <c r="F76" s="72">
+      <c r="H76" s="72">
         <v>1.3433330000000001</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A77" s="53"/>
       <c r="B77" s="58" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="C77" s="59">
         <v>6.1856669999999996</v>
       </c>
-      <c r="D77" s="60">
+      <c r="D77" s="60" t="s">
+        <v>11</v>
+      </c>
+      <c r="E77" s="60" t="s">
+        <v>11</v>
+      </c>
+      <c r="F77" s="60">
         <v>0.80554499999999996</v>
       </c>
-      <c r="E77" s="60">
+      <c r="G77" s="60">
         <v>7.3999999999999996E-2</v>
       </c>
-      <c r="F77" s="61">
+      <c r="H77" s="61">
         <v>1.5120910000000001</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A78" s="53"/>
       <c r="B78" s="58" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="C78" s="59">
         <v>6.5825560000000003</v>
       </c>
-      <c r="D78" s="60">
+      <c r="D78" s="60" t="s">
+        <v>11</v>
+      </c>
+      <c r="E78" s="60" t="s">
+        <v>11</v>
+      </c>
+      <c r="F78" s="60">
         <v>0.79700000000000004</v>
       </c>
-      <c r="E78" s="60">
+      <c r="G78" s="60">
         <v>0.104</v>
       </c>
-      <c r="F78" s="61">
+      <c r="H78" s="61">
         <v>1.6369260000000001</v>
       </c>
     </row>
-    <row r="79" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A79" s="53"/>
       <c r="B79" s="62" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="C79" s="63">
         <v>6.702</v>
       </c>
-      <c r="D79" s="64">
+      <c r="D79" s="64" t="s">
+        <v>11</v>
+      </c>
+      <c r="E79" s="64" t="s">
+        <v>11</v>
+      </c>
+      <c r="F79" s="64">
         <v>0.80781599999999998</v>
       </c>
-      <c r="E79" s="64">
+      <c r="G79" s="64">
         <v>0.114158</v>
       </c>
-      <c r="F79" s="65">
+      <c r="H79" s="65">
         <v>1.632158</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A80" s="53"/>
       <c r="B80" s="69" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C80" s="70">
         <v>4.6348250000000002</v>
       </c>
-      <c r="D80" s="71">
+      <c r="D80" s="71" t="s">
+        <v>11</v>
+      </c>
+      <c r="E80" s="71" t="s">
+        <v>11</v>
+      </c>
+      <c r="F80" s="71">
         <v>0.50280100000000005</v>
       </c>
-      <c r="E80" s="71">
+      <c r="G80" s="71">
         <v>0.112848</v>
       </c>
-      <c r="F80" s="72">
+      <c r="H80" s="72">
         <v>1.009468</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A81" s="53"/>
       <c r="B81" s="58" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="C81" s="59">
         <v>5.8283680000000002</v>
       </c>
-      <c r="D81" s="60">
+      <c r="D81" s="60" t="s">
+        <v>11</v>
+      </c>
+      <c r="E81" s="60" t="s">
+        <v>11</v>
+      </c>
+      <c r="F81" s="60">
         <v>0.75411799999999996</v>
       </c>
-      <c r="E81" s="60">
+      <c r="G81" s="60">
         <v>0.13911799999999999</v>
       </c>
-      <c r="F81" s="61">
+      <c r="H81" s="61">
         <v>1.443765</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A82" s="53"/>
       <c r="B82" s="58" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="C82" s="59">
         <v>4.2448689999999996</v>
       </c>
-      <c r="D82" s="60">
+      <c r="D82" s="60" t="s">
+        <v>11</v>
+      </c>
+      <c r="E82" s="60" t="s">
+        <v>11</v>
+      </c>
+      <c r="F82" s="60">
         <v>0.631521</v>
       </c>
-      <c r="E82" s="60">
+      <c r="G82" s="60">
         <v>0.122724</v>
       </c>
-      <c r="F82" s="61">
+      <c r="H82" s="61">
         <v>0.89515800000000001</v>
       </c>
     </row>
-    <row r="83" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A83" s="53"/>
       <c r="B83" s="62" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="C83" s="63">
         <v>5.9954840000000003</v>
       </c>
-      <c r="D83" s="64">
+      <c r="D83" s="64" t="s">
+        <v>11</v>
+      </c>
+      <c r="E83" s="64" t="s">
+        <v>11</v>
+      </c>
+      <c r="F83" s="64">
         <v>0.78435999999999995</v>
       </c>
-      <c r="E83" s="64">
+      <c r="G83" s="64">
         <v>0.115416</v>
       </c>
-      <c r="F83" s="65">
+      <c r="H83" s="65">
         <v>1.4482250000000001</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A84" s="53"/>
       <c r="B84" s="69" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="C84" s="70">
         <v>4.010974</v>
       </c>
-      <c r="D84" s="71">
+      <c r="D84" s="71" t="s">
+        <v>11</v>
+      </c>
+      <c r="E84" s="71" t="s">
+        <v>11</v>
+      </c>
+      <c r="F84" s="71">
         <v>0.58074599999999998</v>
       </c>
-      <c r="E84" s="71">
+      <c r="G84" s="71">
         <v>0.159192</v>
       </c>
-      <c r="F84" s="72">
+      <c r="H84" s="72">
         <v>0.73123800000000005</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A85" s="53"/>
       <c r="B85" s="73" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="C85" s="59">
         <v>2.7956669999999999</v>
       </c>
-      <c r="D85" s="60">
+      <c r="D85" s="60" t="s">
+        <v>11</v>
+      </c>
+      <c r="E85" s="60" t="s">
+        <v>11</v>
+      </c>
+      <c r="F85" s="60">
         <v>0.2235</v>
       </c>
-      <c r="E85" s="60">
+      <c r="G85" s="60">
         <v>7.0499999999999993E-2</v>
       </c>
-      <c r="F85" s="61">
+      <c r="H85" s="61">
         <v>0.74099999999999999</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A86" s="53"/>
       <c r="B86" s="58" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="C86" s="59">
         <v>4.3584759999999996</v>
       </c>
-      <c r="D86" s="60">
+      <c r="D86" s="60" t="s">
+        <v>11</v>
+      </c>
+      <c r="E86" s="60" t="s">
+        <v>11</v>
+      </c>
+      <c r="F86" s="60">
         <v>0.62465000000000004</v>
       </c>
-      <c r="E86" s="60">
+      <c r="G86" s="60">
         <v>0.10095</v>
       </c>
-      <c r="F86" s="61">
+      <c r="H86" s="61">
         <v>0.94205000000000005</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A87" s="53"/>
       <c r="B87" s="58" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="C87" s="59">
         <v>5.0225499999999998</v>
       </c>
-      <c r="D87" s="60">
+      <c r="D87" s="60" t="s">
+        <v>11</v>
+      </c>
+      <c r="E87" s="60" t="s">
+        <v>11</v>
+      </c>
+      <c r="F87" s="60">
         <v>0.77147399999999999</v>
       </c>
-      <c r="E87" s="60">
+      <c r="G87" s="60">
         <v>0.14315800000000001</v>
       </c>
-      <c r="F87" s="61">
+      <c r="H87" s="61">
         <v>1.156158</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A88" s="53"/>
       <c r="B88" s="58" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="C88" s="59">
         <v>5.165667</v>
       </c>
-      <c r="D88" s="60">
+      <c r="D88" s="60" t="s">
+        <v>11</v>
+      </c>
+      <c r="E88" s="60" t="s">
+        <v>11</v>
+      </c>
+      <c r="F88" s="60">
         <v>0.67183300000000001</v>
       </c>
-      <c r="E88" s="60">
+      <c r="G88" s="60">
         <v>6.4500000000000002E-2</v>
       </c>
-      <c r="F88" s="61">
+      <c r="H88" s="61">
         <v>1.3380000000000001</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A89" s="53"/>
       <c r="B89" s="58" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="C89" s="59">
         <v>5.8588290000000001</v>
       </c>
-      <c r="D89" s="60">
+      <c r="D89" s="60" t="s">
+        <v>11</v>
+      </c>
+      <c r="E89" s="60" t="s">
+        <v>11</v>
+      </c>
+      <c r="F89" s="60">
         <v>0.75926499999999997</v>
       </c>
-      <c r="E89" s="60">
+      <c r="G89" s="60">
         <v>0.111706</v>
       </c>
-      <c r="F89" s="61">
+      <c r="H89" s="61">
         <v>1.4138820000000001</v>
       </c>
     </row>
-    <row r="90" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A90" s="53"/>
       <c r="B90" s="62" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="C90" s="63">
         <v>6.6029020000000003</v>
       </c>
-      <c r="D90" s="64">
+      <c r="D90" s="64" t="s">
+        <v>11</v>
+      </c>
+      <c r="E90" s="64" t="s">
+        <v>11</v>
+      </c>
+      <c r="F90" s="64">
         <v>0.82011999999999996</v>
       </c>
-      <c r="E90" s="64">
+      <c r="G90" s="64">
         <v>0.11648</v>
       </c>
-      <c r="F90" s="65">
+      <c r="H90" s="65">
         <v>1.6084400000000001</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A91" s="53"/>
       <c r="B91" s="69" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="C91" s="70">
         <v>4.0623620000000003</v>
       </c>
-      <c r="D91" s="71">
+      <c r="D91" s="71" t="s">
+        <v>11</v>
+      </c>
+      <c r="E91" s="71" t="s">
+        <v>11</v>
+      </c>
+      <c r="F91" s="71">
         <v>0.598719</v>
       </c>
-      <c r="E91" s="71">
+      <c r="G91" s="71">
         <v>0.148313</v>
       </c>
-      <c r="F91" s="72">
+      <c r="H91" s="72">
         <v>0.76597300000000001</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A92" s="53"/>
       <c r="B92" s="58" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="C92" s="59">
         <v>3.9581249999999999</v>
       </c>
-      <c r="D92" s="60">
+      <c r="D92" s="60" t="s">
+        <v>11</v>
+      </c>
+      <c r="E92" s="60" t="s">
+        <v>11</v>
+      </c>
+      <c r="F92" s="60">
         <v>0.60762499999999997</v>
       </c>
-      <c r="E92" s="60">
+      <c r="G92" s="60">
         <v>0.18425</v>
       </c>
-      <c r="F92" s="61">
+      <c r="H92" s="61">
         <v>0.81499999999999995</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A93" s="53"/>
       <c r="B93" s="58" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="C93" s="59">
         <v>4.7930000000000001</v>
       </c>
-      <c r="D93" s="60">
+      <c r="D93" s="60" t="s">
+        <v>11</v>
+      </c>
+      <c r="E93" s="60" t="s">
+        <v>11</v>
+      </c>
+      <c r="F93" s="60">
         <v>0.51049999999999995</v>
       </c>
-      <c r="E93" s="60">
+      <c r="G93" s="60">
         <v>0.106</v>
       </c>
-      <c r="F93" s="61">
+      <c r="H93" s="61">
         <v>1.0109999999999999</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A94" s="53"/>
       <c r="B94" s="58" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C94" s="59">
         <v>5.7473749999999999</v>
       </c>
-      <c r="D94" s="60">
+      <c r="D94" s="60" t="s">
+        <v>11</v>
+      </c>
+      <c r="E94" s="60" t="s">
+        <v>11</v>
+      </c>
+      <c r="F94" s="60">
         <v>0.74299999999999999</v>
       </c>
-      <c r="E94" s="60">
+      <c r="G94" s="60">
         <v>0.164571</v>
       </c>
-      <c r="F94" s="61">
+      <c r="H94" s="61">
         <v>1.2671429999999999</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A95" s="53"/>
       <c r="B95" s="58" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="C95" s="59">
         <v>3.8167810000000002</v>
       </c>
-      <c r="D95" s="60">
+      <c r="D95" s="60" t="s">
+        <v>11</v>
+      </c>
+      <c r="E95" s="60" t="s">
+        <v>11</v>
+      </c>
+      <c r="F95" s="60">
         <v>0.57002600000000003</v>
       </c>
-      <c r="E95" s="60">
+      <c r="G95" s="60">
         <v>0.13327800000000001</v>
       </c>
-      <c r="F95" s="61">
+      <c r="H95" s="61">
         <v>0.77920500000000004</v>
       </c>
     </row>
-    <row r="96" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A96" s="53"/>
       <c r="B96" s="62" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="C96" s="63">
         <v>5.3710000000000004</v>
       </c>
-      <c r="D96" s="64">
+      <c r="D96" s="64" t="s">
+        <v>11</v>
+      </c>
+      <c r="E96" s="64" t="s">
+        <v>11</v>
+      </c>
+      <c r="F96" s="64">
         <v>0.74460000000000004</v>
       </c>
-      <c r="E96" s="64">
+      <c r="G96" s="64">
         <v>0.125667</v>
       </c>
-      <c r="F96" s="65">
+      <c r="H96" s="65">
         <v>1.3440000000000001</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A97" s="53"/>
       <c r="B97" s="69" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="C97" s="70">
         <v>4.2103570000000001</v>
       </c>
-      <c r="D97" s="71">
+      <c r="D97" s="71" t="s">
+        <v>11</v>
+      </c>
+      <c r="E97" s="71" t="s">
+        <v>11</v>
+      </c>
+      <c r="F97" s="71">
         <v>0.59852799999999995</v>
       </c>
-      <c r="E97" s="71">
+      <c r="G97" s="71">
         <v>0.14125599999999999</v>
       </c>
-      <c r="F97" s="72">
+      <c r="H97" s="72">
         <v>0.84319</v>
       </c>
     </row>
-    <row r="98" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="98" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A98" s="53"/>
       <c r="B98" s="62" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="C98" s="63">
         <v>4.5353529999999997</v>
       </c>
-      <c r="D98" s="64">
+      <c r="D98" s="64" t="s">
+        <v>11</v>
+      </c>
+      <c r="E98" s="64" t="s">
+        <v>11</v>
+      </c>
+      <c r="F98" s="64">
         <v>0.60050000000000003</v>
       </c>
-      <c r="E98" s="64">
+      <c r="G98" s="64">
         <v>0.159938</v>
       </c>
-      <c r="F98" s="65">
+      <c r="H98" s="65">
         <v>1.0538749999999999</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A99" s="74"/>
       <c r="B99" s="75"/>
       <c r="C99" s="67"/>
       <c r="D99" s="67"/>
       <c r="E99" s="67"/>
       <c r="F99" s="67"/>
-    </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G99" s="67"/>
+      <c r="H99" s="67"/>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A100" s="1" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="C100" s="76"/>
       <c r="D100" s="76"/>
       <c r="E100" s="76"/>
       <c r="F100" s="76"/>
-    </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G100" s="76"/>
+      <c r="H100" s="76"/>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A101" s="1" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="C101" s="76"/>
       <c r="D101" s="76"/>
       <c r="E101" s="76"/>
       <c r="F101" s="76"/>
-    </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G101" s="76"/>
+      <c r="H101" s="76"/>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A102" s="1" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="C102" s="76"/>
       <c r="D102" s="76"/>
       <c r="E102" s="76"/>
       <c r="F102" s="76"/>
-    </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G102" s="76"/>
+      <c r="H102" s="76"/>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A103" s="1" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="C103" s="76"/>
       <c r="D103" s="76"/>
       <c r="E103" s="76"/>
       <c r="F103" s="76"/>
-    </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G103" s="76"/>
+      <c r="H103" s="76"/>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A104" s="1" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="C104" s="76"/>
       <c r="D104" s="76"/>
       <c r="E104" s="76"/>
       <c r="F104" s="76"/>
-    </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G104" s="76"/>
+      <c r="H104" s="76"/>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.35">
       <c r="C105" s="76"/>
       <c r="D105" s="76"/>
       <c r="E105" s="76"/>
       <c r="F105" s="76"/>
-    </row>
-    <row r="106" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="G105" s="76"/>
+      <c r="H105" s="76"/>
+    </row>
+    <row r="106" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B106" s="77"/>
       <c r="C106" s="76"/>
       <c r="D106" s="76"/>
       <c r="E106" s="76"/>
       <c r="F106" s="76"/>
-    </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B107" s="78" t="s">
-        <v>163</v>
-      </c>
+      <c r="G106" s="76"/>
+      <c r="H106" s="76"/>
+    </row>
+    <row r="107" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B107" s="77"/>
       <c r="C107" s="76"/>
       <c r="D107" s="76"/>
       <c r="E107" s="76"/>
       <c r="F107" s="76"/>
-    </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B108" s="2"/>
+      <c r="G107" s="76"/>
+      <c r="H107" s="76"/>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B108" s="80" t="s">
+        <v>165</v>
+      </c>
       <c r="C108" s="76"/>
       <c r="D108" s="76"/>
       <c r="E108" s="76"/>
       <c r="F108" s="76"/>
-    </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B109" s="81" t="s">
-        <v>165</v>
-      </c>
+      <c r="G108" s="76"/>
+      <c r="H108" s="76"/>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B109" s="2"/>
       <c r="C109" s="76"/>
       <c r="D109" s="76"/>
       <c r="E109" s="76"/>
       <c r="F109" s="76"/>
-    </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B110" s="81" t="s">
+      <c r="G109" s="76"/>
+      <c r="H109" s="76"/>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B110" s="80" t="s">
         <v>166</v>
       </c>
       <c r="C110" s="76"/>
       <c r="D110" s="76"/>
       <c r="E110" s="76"/>
       <c r="F110" s="76"/>
-    </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B111" s="81" t="s">
+      <c r="G110" s="76"/>
+      <c r="H110" s="76"/>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B111" s="80" t="s">
         <v>167</v>
       </c>
       <c r="C111" s="76"/>
       <c r="D111" s="76"/>
       <c r="E111" s="76"/>
       <c r="F111" s="76"/>
-    </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B112" s="2" t="s">
-        <v>164</v>
+      <c r="G111" s="76"/>
+      <c r="H111" s="76"/>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B112" s="80" t="s">
+        <v>169</v>
       </c>
       <c r="C112" s="76"/>
       <c r="D112" s="76"/>
       <c r="E112" s="76"/>
       <c r="F112" s="76"/>
-    </row>
-    <row r="113" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B113" s="79"/>
+      <c r="G112" s="76"/>
+      <c r="H112" s="76"/>
+    </row>
+    <row r="113" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B113" s="80" t="s">
+        <v>168</v>
+      </c>
       <c r="C113" s="76"/>
       <c r="D113" s="76"/>
       <c r="E113" s="76"/>
       <c r="F113" s="76"/>
+      <c r="G113" s="76"/>
+      <c r="H113" s="76"/>
+    </row>
+    <row r="114" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B114" s="78"/>
+      <c r="C114" s="76"/>
+      <c r="D114" s="76"/>
+      <c r="E114" s="76"/>
+      <c r="F114" s="76"/>
+      <c r="G114" s="76"/>
+      <c r="H114" s="76"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B113" r:id="rId1" display="To download the entire dataset as a flat file in compressed CSV form, click here." xr:uid="{A6C96A85-A011-4E5C-A770-00DD73B1D7AA}"/>
-    <hyperlink ref="B109" r:id="rId2" xr:uid="{13F58C38-FE6B-4F33-93A1-039151357BDD}"/>
-    <hyperlink ref="B110" r:id="rId3" xr:uid="{54EC5098-BB6F-4596-82D1-007B48E4A588}"/>
-    <hyperlink ref="B107" r:id="rId4" xr:uid="{6419D889-2F6B-478F-9D31-8C13C95FDCFE}"/>
-    <hyperlink ref="B112" r:id="rId5" display="CLICK HERE to download all data for the Africa's Development Dynamics Statistical Annex in an Excel format, including historic data back to 2000." xr:uid="{A40904D4-FB9E-44E7-B11A-EF1123899309}"/>
-    <hyperlink ref="B111" r:id="rId6" xr:uid="{6882C5D2-0EDF-44FB-B3F8-515E6D3F4C56}"/>
+    <hyperlink ref="B110" r:id="rId1" xr:uid="{97E88190-57B2-44E4-A33B-77ED3826EB13}"/>
+    <hyperlink ref="B111" r:id="rId2" xr:uid="{A9385FD4-F51F-44AF-B8B5-28DE2D5FCAF4}"/>
+    <hyperlink ref="B108" r:id="rId3" xr:uid="{AADC6DBC-411F-47F3-8F37-DCE11BAB352F}"/>
+    <hyperlink ref="B113" r:id="rId4" xr:uid="{62C70D77-F9BB-4050-B13D-1F59EF15DAE8}"/>
+    <hyperlink ref="B112" r:id="rId5" xr:uid="{01F659B6-B078-4EA5-8891-3F76C8B2B629}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="50" fitToWidth="0" orientation="portrait" r:id="rId7"/>
+  <pageSetup paperSize="9" scale="50" fitToWidth="0" orientation="portrait" r:id="rId6"/>
   <headerFooter>
     <oddFooter>&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K0000FF Restricted Use - À usage restreint</oddFooter>
   </headerFooter>
